--- a/output_test/dimension_per_admin_status_test0.xlsx
+++ b/output_test/dimension_per_admin_status_test0.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
-  <si>
-    <t>admin_1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+  <si>
+    <t>admin_2</t>
   </si>
   <si>
     <t>Admin Pcode</t>
@@ -60,7 +60,76 @@
     <t># Not falling within the PiN dimensions</t>
   </si>
   <si>
+    <t>afgooye</t>
+  </si>
+  <si>
+    <t>baardheere</t>
+  </si>
+  <si>
     <t>banadir</t>
+  </si>
+  <si>
+    <t>baraawe</t>
+  </si>
+  <si>
+    <t>baydhaba</t>
+  </si>
+  <si>
+    <t>borama</t>
+  </si>
+  <si>
+    <t>buur_hakaba</t>
+  </si>
+  <si>
+    <t>ceel_waaq</t>
+  </si>
+  <si>
+    <t>diinsoor</t>
+  </si>
+  <si>
+    <t>gaalkacyo</t>
+  </si>
+  <si>
+    <t>galdogob</t>
+  </si>
+  <si>
+    <t>garbahaarey</t>
+  </si>
+  <si>
+    <t>gebiley</t>
+  </si>
+  <si>
+    <t>hargeysa</t>
+  </si>
+  <si>
+    <t>hobyo</t>
+  </si>
+  <si>
+    <t>jariiban</t>
+  </si>
+  <si>
+    <t>kismaayo</t>
+  </si>
+  <si>
+    <t>marka</t>
+  </si>
+  <si>
+    <t>owdweyne</t>
+  </si>
+  <si>
+    <t>qansax_dheere</t>
+  </si>
+  <si>
+    <t>qoryooley</t>
+  </si>
+  <si>
+    <t>waajid</t>
+  </si>
+  <si>
+    <t>wanla_weyn</t>
+  </si>
+  <si>
+    <t>xudur</t>
   </si>
   <si>
     <t>Host Community</t>
@@ -427,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,43 +551,1055 @@
         <v>14</v>
       </c>
       <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>243100.2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.2207538346427235</v>
+      </c>
+      <c r="J2">
+        <v>53665.30135241301</v>
+      </c>
+      <c r="K2">
+        <v>0.4185372240927796</v>
+      </c>
+      <c r="L2">
+        <v>101746.4828843995</v>
+      </c>
+      <c r="M2">
+        <v>0.3607089412644968</v>
+      </c>
+      <c r="N2">
+        <v>87688.41576318743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>115725.4</v>
+      </c>
+      <c r="E3">
+        <v>0.5936520473358783</v>
+      </c>
+      <c r="F3">
+        <v>68700.62063876344</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.06017715660407236</v>
+      </c>
+      <c r="L3">
+        <v>6964.025518868915</v>
+      </c>
+      <c r="M3">
+        <v>0.3461707960600494</v>
+      </c>
+      <c r="N3">
+        <v>40060.75384236763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>93762.89999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.4900087570730206</v>
+      </c>
+      <c r="F4">
+        <v>45944.64208856192</v>
+      </c>
+      <c r="G4">
+        <v>0.01036414026713884</v>
+      </c>
+      <c r="H4">
+        <v>971.7718474537126</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.1377675237691982</v>
+      </c>
+      <c r="L4">
+        <v>12917.48255441895</v>
+      </c>
+      <c r="M4">
+        <v>0.3618595788906425</v>
+      </c>
+      <c r="N4">
+        <v>33929.00350956542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>173573.4</v>
+      </c>
+      <c r="E5">
+        <v>0.4876471267626337</v>
+      </c>
+      <c r="F5">
+        <v>84642.56979242133</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.1846683676147877</v>
+      </c>
+      <c r="J5">
+        <v>32053.51643934859</v>
+      </c>
+      <c r="K5">
+        <v>0.1846683676147877</v>
+      </c>
+      <c r="L5">
+        <v>32053.51643934859</v>
+      </c>
+      <c r="M5">
+        <v>0.1430161380077908</v>
+      </c>
+      <c r="N5">
+        <v>24823.79732888147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>240014.6</v>
+      </c>
+      <c r="E6">
+        <v>0.1687599136619146</v>
+      </c>
+      <c r="F6">
+        <v>40504.84317359897</v>
+      </c>
+      <c r="G6">
+        <v>0.01594539049272608</v>
+      </c>
+      <c r="H6">
+        <v>3827.126520955453</v>
+      </c>
+      <c r="I6">
+        <v>0.06189253666422249</v>
+      </c>
+      <c r="J6">
+        <v>14855.11243044869</v>
+      </c>
+      <c r="K6">
+        <v>0.06984715874677341</v>
+      </c>
+      <c r="L6">
+        <v>16764.33786774332</v>
+      </c>
+      <c r="M6">
+        <v>0.6835550004343635</v>
+      </c>
+      <c r="N6">
+        <v>164063.1800072536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>81852.39999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.2689808492758571</v>
+      </c>
+      <c r="F7">
+        <v>22016.72806726716</v>
+      </c>
+      <c r="G7">
+        <v>0.04333012732134963</v>
+      </c>
+      <c r="H7">
+        <v>3546.674913558038</v>
+      </c>
+      <c r="I7">
+        <v>0.04938489432196676</v>
+      </c>
+      <c r="J7">
+        <v>4042.272123999352</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6383041290808265</v>
+      </c>
+      <c r="N7">
+        <v>52246.72489517544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>94049.89999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.9116616171590927</v>
+      </c>
+      <c r="F8">
+        <v>85741.68392765094</v>
+      </c>
+      <c r="G8">
+        <v>0.04399914443831638</v>
+      </c>
+      <c r="H8">
+        <v>4138.115134509211</v>
+      </c>
+      <c r="I8">
+        <v>0.01477974613419698</v>
+      </c>
+      <c r="J8">
+        <v>1390.033645946613</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.02955949226839396</v>
+      </c>
+      <c r="N8">
+        <v>2780.067291893225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>71100.39999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.5679609682845597</v>
+      </c>
+      <c r="F9">
+        <v>40382.25202941951</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.04206303326728966</v>
+      </c>
+      <c r="J9">
+        <v>2990.698490517601</v>
+      </c>
+      <c r="K9">
+        <v>0.065966629446729</v>
+      </c>
+      <c r="L9">
+        <v>4690.253740314211</v>
+      </c>
+      <c r="M9">
+        <v>0.3240093690014216</v>
+      </c>
+      <c r="N9">
+        <v>23037.19573974867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>206736.6</v>
+      </c>
+      <c r="E10">
+        <v>0.4099084468293059</v>
+      </c>
+      <c r="F10">
+        <v>84743.07860877148</v>
+      </c>
+      <c r="G10">
+        <v>0.09929655485403847</v>
+      </c>
+      <c r="H10">
+        <v>20528.23214223741</v>
+      </c>
+      <c r="I10">
+        <v>0.02643518085941034</v>
+      </c>
+      <c r="J10">
+        <v>5465.119411259572</v>
+      </c>
+      <c r="K10">
+        <v>0.04921594712963829</v>
+      </c>
+      <c r="L10">
+        <v>10174.73757536118</v>
+      </c>
+      <c r="M10">
+        <v>0.415143870327607</v>
+      </c>
+      <c r="N10">
+        <v>85825.43226237035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>79356.89999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.4299121697265338</v>
+      </c>
+      <c r="F11">
+        <v>34116.49706177157</v>
+      </c>
+      <c r="G11">
+        <v>0.002073464810094382</v>
+      </c>
+      <c r="H11">
+        <v>164.5437395881789</v>
+      </c>
+      <c r="I11">
+        <v>0.003799352282231198</v>
+      </c>
+      <c r="J11">
+        <v>301.5048191257929</v>
+      </c>
+      <c r="K11">
+        <v>0.0318523232285255</v>
+      </c>
+      <c r="L11">
+        <v>2527.701629213775</v>
+      </c>
+      <c r="M11">
+        <v>0.532362689952615</v>
+      </c>
+      <c r="N11">
+        <v>42246.65275030067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>94126.89999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.2001274017281461</v>
+      </c>
+      <c r="F12">
+        <v>18837.37192972504</v>
+      </c>
+      <c r="G12">
+        <v>0.008701100869589655</v>
+      </c>
+      <c r="H12">
+        <v>819.0076514417784</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.00622904936348577</v>
+      </c>
+      <c r="L12">
+        <v>586.3211065318886</v>
+      </c>
+      <c r="M12">
+        <v>0.7849424480387784</v>
+      </c>
+      <c r="N12">
+        <v>73884.19931230129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>82380.2</v>
+      </c>
+      <c r="E13">
+        <v>0.9013952900419885</v>
+      </c>
+      <c r="F13">
+        <v>74257.12427271702</v>
+      </c>
+      <c r="G13">
+        <v>0.03080809978851995</v>
+      </c>
+      <c r="H13">
+        <v>2537.977422198231</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="N13">
+        <v>5585.098305084745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>75315.79999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.2975858521016974</v>
+      </c>
+      <c r="F14">
+        <v>22412.91651972101</v>
+      </c>
+      <c r="G14">
+        <v>0.04419353895982836</v>
+      </c>
+      <c r="H14">
+        <v>3328.47174159064</v>
+      </c>
+      <c r="I14">
+        <v>0.02037655305713799</v>
+      </c>
+      <c r="J14">
+        <v>1534.676394740793</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.6378440558813364</v>
+      </c>
+      <c r="N14">
+        <v>48039.73534394755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>49284.2</v>
+      </c>
+      <c r="E15">
+        <v>0.4075625042924179</v>
+      </c>
+      <c r="F15">
+        <v>20086.39197404838</v>
+      </c>
+      <c r="G15">
+        <v>0.05977305113826745</v>
+      </c>
+      <c r="H15">
+        <v>2945.8670069086</v>
+      </c>
+      <c r="I15">
+        <v>0.1499193248439344</v>
+      </c>
+      <c r="J15">
+        <v>7388.653989473431</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.3827451197253804</v>
+      </c>
+      <c r="N15">
+        <v>18863.28702956959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>469612.4999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.5423339201469525</v>
+      </c>
+      <c r="F16">
+        <v>254686.7880750107</v>
+      </c>
+      <c r="G16">
+        <v>0.01184023204483496</v>
+      </c>
+      <c r="H16">
+        <v>5560.320971155058</v>
+      </c>
+      <c r="I16">
+        <v>0.04374253058433061</v>
+      </c>
+      <c r="J16">
+        <v>20542.03914403396</v>
+      </c>
+      <c r="K16">
+        <v>0.00498791576346342</v>
+      </c>
+      <c r="L16">
+        <v>2342.387591469465</v>
+      </c>
+      <c r="M16">
+        <v>0.3970954014604183</v>
+      </c>
+      <c r="N16">
+        <v>186480.9642183307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>93762.89999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.4680184114879091</v>
-      </c>
-      <c r="F2">
-        <v>43882.76351449967</v>
-      </c>
-      <c r="G2">
-        <v>0.009314734402913994</v>
-      </c>
-      <c r="H2">
-        <v>873.3765103469844</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.1081153655997713</v>
-      </c>
-      <c r="L2">
-        <v>10137.21021319479</v>
-      </c>
-      <c r="M2">
-        <v>0.4145514885094055</v>
-      </c>
-      <c r="N2">
-        <v>38869.54976195854</v>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>77969.5</v>
+      </c>
+      <c r="E17">
+        <v>0.5037295276714084</v>
+      </c>
+      <c r="F17">
+        <v>39275.53940777588</v>
+      </c>
+      <c r="G17">
+        <v>0.072908468205873</v>
+      </c>
+      <c r="H17">
+        <v>5684.636811777815</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.4233620041227185</v>
+      </c>
+      <c r="N17">
+        <v>33009.3237804463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>85275.39999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.5794695330329798</v>
+      </c>
+      <c r="F18">
+        <v>49414.49621720056</v>
+      </c>
+      <c r="G18">
+        <v>0.01982536247675131</v>
+      </c>
+      <c r="H18">
+        <v>1690.615715349959</v>
+      </c>
+      <c r="I18">
+        <v>0.1486395402461953</v>
+      </c>
+      <c r="J18">
+        <v>12675.2962503104</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.2520655642440736</v>
+      </c>
+      <c r="N18">
+        <v>21494.99181713907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>81840.5</v>
+      </c>
+      <c r="E19">
+        <v>0.425110886124771</v>
+      </c>
+      <c r="F19">
+        <v>34791.28747589432</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.574889113875229</v>
+      </c>
+      <c r="N19">
+        <v>47049.21252410568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>116609.5</v>
+      </c>
+      <c r="E20">
+        <v>0.3009418887326634</v>
+      </c>
+      <c r="F20">
+        <v>35092.68317417151</v>
+      </c>
+      <c r="G20">
+        <v>0.05616497909159434</v>
+      </c>
+      <c r="H20">
+        <v>6549.370129381269</v>
+      </c>
+      <c r="I20">
+        <v>0.04095319991323776</v>
+      </c>
+      <c r="J20">
+        <v>4775.532165282698</v>
+      </c>
+      <c r="K20">
+        <v>0.002975895707582842</v>
+      </c>
+      <c r="L20">
+        <v>347.0177105133814</v>
+      </c>
+      <c r="M20">
+        <v>0.5989640365549218</v>
+      </c>
+      <c r="N20">
+        <v>69844.89682065115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>103387.2</v>
+      </c>
+      <c r="E21">
+        <v>0.5418856215796917</v>
+      </c>
+      <c r="F21">
+        <v>56024.0371353839</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.3454103423973967</v>
+      </c>
+      <c r="L21">
+        <v>35711.00815150813</v>
+      </c>
+      <c r="M21">
+        <v>0.1127040360229116</v>
+      </c>
+      <c r="N21">
+        <v>11652.15471310797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>70760.2</v>
+      </c>
+      <c r="E22">
+        <v>0.7446340071447803</v>
+      </c>
+      <c r="F22">
+        <v>52690.45127236608</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.009262706591208028</v>
+      </c>
+      <c r="J22">
+        <v>655.4309709351983</v>
+      </c>
+      <c r="K22">
+        <v>0.0140196668259835</v>
+      </c>
+      <c r="L22">
+        <v>992.0344285399576</v>
+      </c>
+      <c r="M22">
+        <v>0.2320836194380281</v>
+      </c>
+      <c r="N22">
+        <v>16422.28332815876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>114132.2</v>
+      </c>
+      <c r="E23">
+        <v>0.500738552437223</v>
+      </c>
+      <c r="F23">
+        <v>57150.39261447562</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.4992614475627769</v>
+      </c>
+      <c r="N23">
+        <v>56981.80738552436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>284225.2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>284225.2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>98820.39999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.4207194630993307</v>
+      </c>
+      <c r="F25">
+        <v>41575.66563126109</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.05758540220668155</v>
+      </c>
+      <c r="J25">
+        <v>5690.612480225153</v>
+      </c>
+      <c r="K25">
+        <v>0.04834251346264776</v>
+      </c>
+      <c r="L25">
+        <v>4777.226517384237</v>
+      </c>
+      <c r="M25">
+        <v>0.47335262123134</v>
+      </c>
+      <c r="N25">
+        <v>46776.89537112951</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,43 +1664,307 @@
         <v>14</v>
       </c>
       <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>34728.6</v>
+      </c>
+      <c r="E2">
+        <v>0.6433016769084512</v>
+      </c>
+      <c r="F2">
+        <v>22340.96661668284</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.2318661609479286</v>
+      </c>
+      <c r="L2">
+        <v>8052.387157096233</v>
+      </c>
+      <c r="M2">
+        <v>0.1248321621436202</v>
+      </c>
+      <c r="N2">
+        <v>4335.246226220928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>16532.2</v>
+      </c>
+      <c r="E3">
+        <v>0.5533882858619658</v>
+      </c>
+      <c r="F3">
+        <v>9148.725819527192</v>
+      </c>
+      <c r="G3">
+        <v>0.0427895209336489</v>
+      </c>
+      <c r="H3">
+        <v>707.4049179792704</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.03955765934873092</v>
+      </c>
+      <c r="L3">
+        <v>653.9751358850893</v>
+      </c>
+      <c r="M3">
+        <v>0.3642645338556544</v>
+      </c>
+      <c r="N3">
+        <v>6022.094126608449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
         <v>13394.7</v>
       </c>
-      <c r="E2">
-        <v>0.7353096868611652</v>
-      </c>
-      <c r="F2">
-        <v>9849.252662599249</v>
-      </c>
-      <c r="G2">
-        <v>0.006377632686121721</v>
-      </c>
-      <c r="H2">
-        <v>85.42647654079462</v>
-      </c>
-      <c r="I2">
-        <v>0.004530647688371309</v>
-      </c>
-      <c r="J2">
-        <v>60.68666659142718</v>
-      </c>
-      <c r="K2">
-        <v>0.1010237853035122</v>
-      </c>
-      <c r="L2">
-        <v>1353.183297004955</v>
-      </c>
-      <c r="M2">
-        <v>0.1527582474608297</v>
-      </c>
-      <c r="N2">
-        <v>2046.150897263576</v>
+      <c r="E4">
+        <v>0.7513152500830661</v>
+      </c>
+      <c r="F4">
+        <v>10063.64238028765</v>
+      </c>
+      <c r="G4">
+        <v>0.00598745161666156</v>
+      </c>
+      <c r="H4">
+        <v>80.20011816969659</v>
+      </c>
+      <c r="I4">
+        <v>0.005943221585981021</v>
+      </c>
+      <c r="J4">
+        <v>79.60767017773999</v>
+      </c>
+      <c r="K4">
+        <v>0.09465463897507151</v>
+      </c>
+      <c r="L4">
+        <v>1267.870492679391</v>
+      </c>
+      <c r="M4">
+        <v>0.1420994377392197</v>
+      </c>
+      <c r="N4">
+        <v>1903.379338685527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>24796.2</v>
+      </c>
+      <c r="E5">
+        <v>0.6839078810694795</v>
+      </c>
+      <c r="F5">
+        <v>16958.31660057503</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.06985819469392206</v>
+      </c>
+      <c r="J5">
+        <v>1732.21776726943</v>
+      </c>
+      <c r="K5">
+        <v>0.2462339242365985</v>
+      </c>
+      <c r="L5">
+        <v>6105.665632155544</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>11336.7</v>
+      </c>
+      <c r="E6">
+        <v>0.6579353698634105</v>
+      </c>
+      <c r="F6">
+        <v>7458.815907530527</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.01181506105244861</v>
+      </c>
+      <c r="J6">
+        <v>133.9438026332942</v>
+      </c>
+      <c r="K6">
+        <v>0.05475166210402815</v>
+      </c>
+      <c r="L6">
+        <v>620.703167774736</v>
+      </c>
+      <c r="M6">
+        <v>0.2754979069801127</v>
+      </c>
+      <c r="N6">
+        <v>3123.237122061444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>12182.2</v>
+      </c>
+      <c r="E7">
+        <v>0.6886861461637087</v>
+      </c>
+      <c r="F7">
+        <v>8389.712369795532</v>
+      </c>
+      <c r="G7">
+        <v>0.0721992037249477</v>
+      </c>
+      <c r="H7">
+        <v>879.545139618058</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.0408772521762602</v>
+      </c>
+      <c r="L7">
+        <v>497.9748614616371</v>
+      </c>
+      <c r="M7">
+        <v>0.1982373979350833</v>
+      </c>
+      <c r="N7">
+        <v>2414.967629124772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>40603.60000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.1839132655402984</v>
+      </c>
+      <c r="F8">
+        <v>7467.54066869206</v>
+      </c>
+      <c r="G8">
+        <v>0.022875022338889</v>
+      </c>
+      <c r="H8">
+        <v>928.8082570393136</v>
+      </c>
+      <c r="I8">
+        <v>0.008404305082329182</v>
+      </c>
+      <c r="J8">
+        <v>341.2450418408612</v>
+      </c>
+      <c r="K8">
+        <v>0.1731163799964648</v>
+      </c>
+      <c r="L8">
+        <v>7029.148246824461</v>
+      </c>
+      <c r="M8">
+        <v>0.6116910270420185</v>
+      </c>
+      <c r="N8">
+        <v>24836.8577856033</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,43 +2029,747 @@
         <v>14</v>
       </c>
       <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>69457.2</v>
+      </c>
+      <c r="E2">
+        <v>0.7992269420723547</v>
+      </c>
+      <c r="F2">
+        <v>55512.06556090795</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.07899362576940855</v>
+      </c>
+      <c r="J2">
+        <v>5486.676063790963</v>
+      </c>
+      <c r="K2">
+        <v>0.06532293871493565</v>
+      </c>
+      <c r="L2">
+        <v>4537.148418911028</v>
+      </c>
+      <c r="M2">
+        <v>0.05645649344330097</v>
+      </c>
+      <c r="N2">
+        <v>3921.309956390044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>33064.4</v>
+      </c>
+      <c r="E3">
+        <v>0.7648183526349268</v>
+      </c>
+      <c r="F3">
+        <v>25288.25993886228</v>
+      </c>
+      <c r="G3">
+        <v>0.0215344373893752</v>
+      </c>
+      <c r="H3">
+        <v>712.0232516172573</v>
+      </c>
+      <c r="I3">
+        <v>0.007947170467775893</v>
+      </c>
+      <c r="J3">
+        <v>262.7684232147292</v>
+      </c>
+      <c r="K3">
+        <v>0.00734564401580736</v>
+      </c>
+      <c r="L3">
+        <v>242.8793119962609</v>
+      </c>
+      <c r="M3">
+        <v>0.1983543954921146</v>
+      </c>
+      <c r="N3">
+        <v>6558.469074309476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>26789.4</v>
+      </c>
+      <c r="E4">
+        <v>0.7495597081708685</v>
+      </c>
+      <c r="F4">
+        <v>20080.25484607266</v>
+      </c>
+      <c r="G4">
+        <v>0.01754245595791219</v>
+      </c>
+      <c r="H4">
+        <v>469.9518696388927</v>
+      </c>
+      <c r="I4">
+        <v>0.008491895486240323</v>
+      </c>
+      <c r="J4">
+        <v>227.4927849390865</v>
+      </c>
+      <c r="K4">
+        <v>0.05953196028293179</v>
+      </c>
+      <c r="L4">
+        <v>1594.825496803573</v>
+      </c>
+      <c r="M4">
+        <v>0.1648739801020473</v>
+      </c>
+      <c r="N4">
+        <v>4416.875002545786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>26789.4</v>
-      </c>
-      <c r="E2">
-        <v>0.7395598751438717</v>
-      </c>
-      <c r="F2">
-        <v>19812.36531917924</v>
-      </c>
-      <c r="G2">
-        <v>0.0178146442137309</v>
-      </c>
-      <c r="H2">
-        <v>477.2436296993226</v>
-      </c>
-      <c r="I2">
-        <v>0.01042459955221755</v>
-      </c>
-      <c r="J2">
-        <v>279.2687672441768</v>
-      </c>
-      <c r="K2">
-        <v>0.06725328190916879</v>
-      </c>
-      <c r="L2">
-        <v>1801.675070377487</v>
-      </c>
-      <c r="M2">
-        <v>0.164947599181011</v>
-      </c>
-      <c r="N2">
-        <v>4418.847213499777</v>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>49592.4</v>
+      </c>
+      <c r="E5">
+        <v>0.2702802395757917</v>
+      </c>
+      <c r="F5">
+        <v>13403.84575313849</v>
+      </c>
+      <c r="G5">
+        <v>0.007968785323264204</v>
+      </c>
+      <c r="H5">
+        <v>395.1911892654477</v>
+      </c>
+      <c r="I5">
+        <v>0.07257440957387444</v>
+      </c>
+      <c r="J5">
+        <v>3599.139149351411</v>
+      </c>
+      <c r="K5">
+        <v>0.1282211239916326</v>
+      </c>
+      <c r="L5">
+        <v>6358.793269442639</v>
+      </c>
+      <c r="M5">
+        <v>0.520955441535437</v>
+      </c>
+      <c r="N5">
+        <v>25835.43063880201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>68575.60000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.4477914138796211</v>
+      </c>
+      <c r="F6">
+        <v>30707.56488164335</v>
+      </c>
+      <c r="G6">
+        <v>0.01051496767002743</v>
+      </c>
+      <c r="H6">
+        <v>721.0702169527329</v>
+      </c>
+      <c r="I6">
+        <v>0.04653909894650771</v>
+      </c>
+      <c r="J6">
+        <v>3191.446633716134</v>
+      </c>
+      <c r="K6">
+        <v>0.1667846947938645</v>
+      </c>
+      <c r="L6">
+        <v>11437.36051630613</v>
+      </c>
+      <c r="M6">
+        <v>0.3283698247099794</v>
+      </c>
+      <c r="N6">
+        <v>22518.15775138166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>26871.4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>26871.4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>20314.4</v>
+      </c>
+      <c r="E8">
+        <v>0.4969378496382671</v>
+      </c>
+      <c r="F8">
+        <v>10094.99425269161</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.05006096929547049</v>
+      </c>
+      <c r="J8">
+        <v>1016.958554655906</v>
+      </c>
+      <c r="K8">
+        <v>0.2372337411790682</v>
+      </c>
+      <c r="L8">
+        <v>4819.261111808063</v>
+      </c>
+      <c r="M8">
+        <v>0.2157674398871943</v>
+      </c>
+      <c r="N8">
+        <v>4383.18608084442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>59067.60000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.2485921992948206</v>
+      </c>
+      <c r="F9">
+        <v>14683.74459106675</v>
+      </c>
+      <c r="G9">
+        <v>0.3071258719253527</v>
+      </c>
+      <c r="H9">
+        <v>18141.18815253796</v>
+      </c>
+      <c r="I9">
+        <v>0.08978947641377531</v>
+      </c>
+      <c r="J9">
+        <v>5303.648877018315</v>
+      </c>
+      <c r="K9">
+        <v>0.009930820655826629</v>
+      </c>
+      <c r="L9">
+        <v>586.5897421701051</v>
+      </c>
+      <c r="M9">
+        <v>0.3445616317102246</v>
+      </c>
+      <c r="N9">
+        <v>20352.42863720687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>22673.4</v>
+      </c>
+      <c r="E10">
+        <v>0.5426108919312971</v>
+      </c>
+      <c r="F10">
+        <v>12302.83379711507</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.01875235612574371</v>
+      </c>
+      <c r="J10">
+        <v>425.1796713814374</v>
+      </c>
+      <c r="K10">
+        <v>0.004007532273483273</v>
+      </c>
+      <c r="L10">
+        <v>90.86438224959564</v>
+      </c>
+      <c r="M10">
+        <v>0.4346292196694759</v>
+      </c>
+      <c r="N10">
+        <v>9854.522149253895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>26893.4</v>
+      </c>
+      <c r="E11">
+        <v>0.4530113958963566</v>
+      </c>
+      <c r="F11">
+        <v>12183.01667439908</v>
+      </c>
+      <c r="G11">
+        <v>0.008113467825072291</v>
+      </c>
+      <c r="H11">
+        <v>218.1987356067991</v>
+      </c>
+      <c r="I11">
+        <v>0.0111736067447489</v>
+      </c>
+      <c r="J11">
+        <v>300.4962756292301</v>
+      </c>
+      <c r="K11">
+        <v>0.02051862906435645</v>
+      </c>
+      <c r="L11">
+        <v>551.8156988793637</v>
+      </c>
+      <c r="M11">
+        <v>0.5071829004694658</v>
+      </c>
+      <c r="N11">
+        <v>13639.87261548553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>23537.2</v>
+      </c>
+      <c r="E12">
+        <v>0.8891157359238765</v>
+      </c>
+      <c r="F12">
+        <v>20927.29489958746</v>
+      </c>
+      <c r="G12">
+        <v>0.0570098070834233</v>
+      </c>
+      <c r="H12">
+        <v>1341.851231283951</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.05387445699270006</v>
+      </c>
+      <c r="N12">
+        <v>1268.05386912858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>134175</v>
+      </c>
+      <c r="E13">
+        <v>0.2595467020189806</v>
+      </c>
+      <c r="F13">
+        <v>34824.67874339672</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.7404532979810194</v>
+      </c>
+      <c r="N13">
+        <v>99350.32125660329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>24364.4</v>
+      </c>
+      <c r="E14">
+        <v>0.3268731220829387</v>
+      </c>
+      <c r="F14">
+        <v>7964.067495677551</v>
+      </c>
+      <c r="G14">
+        <v>0.04509677214318252</v>
+      </c>
+      <c r="H14">
+        <v>1098.755795205356</v>
+      </c>
+      <c r="I14">
+        <v>0.008169862668472404</v>
+      </c>
+      <c r="J14">
+        <v>199.053801999729</v>
+      </c>
+      <c r="K14">
+        <v>0.09404792636697308</v>
+      </c>
+      <c r="L14">
+        <v>2291.421297175479</v>
+      </c>
+      <c r="M14">
+        <v>0.5258123167384334</v>
+      </c>
+      <c r="N14">
+        <v>12811.10160994189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>23383</v>
+      </c>
+      <c r="E15">
+        <v>0.9307800726479247</v>
+      </c>
+      <c r="F15">
+        <v>21764.43043872642</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.06921992735207536</v>
+      </c>
+      <c r="N15">
+        <v>1618.569561273578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>29539.2</v>
+      </c>
+      <c r="E16">
+        <v>0.2088718887334435</v>
+      </c>
+      <c r="F16">
+        <v>6169.908495674933</v>
+      </c>
+      <c r="G16">
+        <v>0.00896551538235524</v>
+      </c>
+      <c r="H16">
+        <v>264.8341519824679</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.7821625958842012</v>
+      </c>
+      <c r="L16">
+        <v>23104.4573523426</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>32609.2</v>
+      </c>
+      <c r="E17">
+        <v>0.3515268636561792</v>
+      </c>
+      <c r="F17">
+        <v>11463.00980233708</v>
+      </c>
+      <c r="G17">
+        <v>0.01223298493338579</v>
+      </c>
+      <c r="H17">
+        <v>398.9078522897638</v>
+      </c>
+      <c r="I17">
+        <v>0.01498465338989959</v>
+      </c>
+      <c r="J17">
+        <v>488.6375593219137</v>
+      </c>
+      <c r="K17">
+        <v>0.004962838520345778</v>
+      </c>
+      <c r="L17">
+        <v>161.8341938776595</v>
+      </c>
+      <c r="M17">
+        <v>0.6162926595001896</v>
+      </c>
+      <c r="N17">
+        <v>20096.81059217358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>81207.20000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.07757937827656473</v>
+      </c>
+      <c r="F18">
+        <v>6300.004087580649</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.06066822268849129</v>
+      </c>
+      <c r="J18">
+        <v>4926.69649350885</v>
+      </c>
+      <c r="K18">
+        <v>0.2951311835239057</v>
+      </c>
+      <c r="L18">
+        <v>23966.77704666252</v>
+      </c>
+      <c r="M18">
+        <v>0.5666212155110383</v>
+      </c>
+      <c r="N18">
+        <v>46013.722372248</v>
       </c>
     </row>
   </sheetData>

--- a/output_test/dimension_per_admin_status_test0.xlsx
+++ b/output_test/dimension_per_admin_status_test0.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Host Community" sheetId="1" r:id="rId1"/>
-    <sheet name="New IDPs" sheetId="2" r:id="rId2"/>
-    <sheet name="Protracted IDPs" sheetId="3" r:id="rId3"/>
+    <sheet name="ocap" sheetId="1" r:id="rId1"/>
+    <sheet name="idp" sheetId="2" r:id="rId2"/>
+    <sheet name="ret" sheetId="3" r:id="rId3"/>
+    <sheet name="ndsp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
-  <si>
-    <t>admin_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Admin Pcode</t>
@@ -60,85 +61,70 @@
     <t># Not falling within the PiN dimensions</t>
   </si>
   <si>
-    <t>afgooye</t>
-  </si>
-  <si>
-    <t>baardheere</t>
-  </si>
-  <si>
-    <t>banadir</t>
-  </si>
-  <si>
-    <t>baraawe</t>
-  </si>
-  <si>
-    <t>baydhaba</t>
-  </si>
-  <si>
-    <t>borama</t>
-  </si>
-  <si>
-    <t>buur_hakaba</t>
-  </si>
-  <si>
-    <t>ceel_waaq</t>
-  </si>
-  <si>
-    <t>diinsoor</t>
-  </si>
-  <si>
-    <t>gaalkacyo</t>
-  </si>
-  <si>
-    <t>galdogob</t>
-  </si>
-  <si>
-    <t>garbahaarey</t>
-  </si>
-  <si>
-    <t>gebiley</t>
-  </si>
-  <si>
-    <t>hargeysa</t>
-  </si>
-  <si>
-    <t>hobyo</t>
-  </si>
-  <si>
-    <t>jariiban</t>
-  </si>
-  <si>
-    <t>kismaayo</t>
-  </si>
-  <si>
-    <t>marka</t>
-  </si>
-  <si>
-    <t>owdweyne</t>
-  </si>
-  <si>
-    <t>qansax_dheere</t>
-  </si>
-  <si>
-    <t>qoryooley</t>
-  </si>
-  <si>
-    <t>waajid</t>
-  </si>
-  <si>
-    <t>wanla_weyn</t>
-  </si>
-  <si>
-    <t>xudur</t>
-  </si>
-  <si>
-    <t>Host Community</t>
-  </si>
-  <si>
-    <t>New IDPs</t>
-  </si>
-  <si>
-    <t>Protracted IDPs</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
+  </si>
+  <si>
+    <t>ocap</t>
+  </si>
+  <si>
+    <t>idp</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>ndsp</t>
   </si>
 </sst>
 </file>
@@ -496,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,43 +537,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>243100.2</v>
+        <v>94126.89999999999</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.21517515988475</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20253.77075695587</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02729271835183012</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2568.978971030878</v>
       </c>
       <c r="I2">
-        <v>0.2207538346427235</v>
+        <v>0.01164686119579419</v>
       </c>
       <c r="J2">
-        <v>53665.30135241301</v>
+        <v>1096.2829390904</v>
       </c>
       <c r="K2">
-        <v>0.4185372240927796</v>
+        <v>0.007435901286586845</v>
       </c>
       <c r="L2">
-        <v>101746.4828843995</v>
+        <v>699.9183368124312</v>
       </c>
       <c r="M2">
-        <v>0.3607089412644968</v>
+        <v>0.7384493592810388</v>
       </c>
       <c r="N2">
-        <v>87688.41576318743</v>
+        <v>69507.94899611041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -595,43 +581,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>115725.4</v>
+        <v>49284.2</v>
       </c>
       <c r="E3">
-        <v>0.5936520473358783</v>
+        <v>0.6153634681803213</v>
       </c>
       <c r="F3">
-        <v>68700.62063876344</v>
+        <v>30327.69623849259</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.002634282573917212</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>129.8285092294507</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.03274021894796379</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1613.575498675237</v>
       </c>
       <c r="K3">
-        <v>0.06017715660407236</v>
+        <v>0.03758695195660464</v>
       </c>
       <c r="L3">
-        <v>6964.025518868915</v>
+        <v>1852.442857619694</v>
       </c>
       <c r="M3">
-        <v>0.3461707960600494</v>
+        <v>0.3116750783411931</v>
       </c>
       <c r="N3">
-        <v>40060.75384236763</v>
+        <v>15360.65689598303</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -639,43 +625,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>93762.89999999999</v>
+        <v>71100.39999999999</v>
       </c>
       <c r="E4">
-        <v>0.4900087570730206</v>
+        <v>0.3782536674377708</v>
       </c>
       <c r="F4">
-        <v>45944.64208856192</v>
+        <v>26893.98705629248</v>
       </c>
       <c r="G4">
-        <v>0.01036414026713884</v>
+        <v>0.04232706828847271</v>
       </c>
       <c r="H4">
-        <v>971.7718474537126</v>
+        <v>3009.471486137725</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01569933698188069</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1116.22913914651</v>
       </c>
       <c r="K4">
-        <v>0.1377675237691982</v>
+        <v>0.01911967413694302</v>
       </c>
       <c r="L4">
-        <v>12917.48255441895</v>
+        <v>1359.416479006303</v>
       </c>
       <c r="M4">
-        <v>0.3618595788906425</v>
+        <v>0.5446002531549328</v>
       </c>
       <c r="N4">
-        <v>33929.00350956542</v>
+        <v>38721.29583941698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -683,43 +669,43 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>173573.4</v>
+        <v>79356.89999999999</v>
       </c>
       <c r="E5">
-        <v>0.4876471267626337</v>
+        <v>0.6407800059695816</v>
       </c>
       <c r="F5">
-        <v>84642.56979242133</v>
+        <v>50850.31485572749</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.02503239058499825</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1986.492916414647</v>
       </c>
       <c r="I5">
-        <v>0.1846683676147877</v>
+        <v>0.01098830617893219</v>
       </c>
       <c r="J5">
-        <v>32053.51643934859</v>
+        <v>871.9979146109039</v>
       </c>
       <c r="K5">
-        <v>0.1846683676147877</v>
+        <v>0.01540841196257678</v>
       </c>
       <c r="L5">
-        <v>32053.51643934859</v>
+        <v>1222.763807273009</v>
       </c>
       <c r="M5">
-        <v>0.1430161380077908</v>
+        <v>0.3077908853039111</v>
       </c>
       <c r="N5">
-        <v>24823.79732888147</v>
+        <v>24425.33050597394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -727,43 +713,43 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>240014.6</v>
+        <v>206736.6</v>
       </c>
       <c r="E6">
-        <v>0.1687599136619146</v>
+        <v>0.6778543106902455</v>
       </c>
       <c r="F6">
-        <v>40504.84317359897</v>
+        <v>140137.295487445</v>
       </c>
       <c r="G6">
-        <v>0.01594539049272608</v>
+        <v>0.05375346641047739</v>
       </c>
       <c r="H6">
-        <v>3827.126520955453</v>
+        <v>11112.8088839163</v>
       </c>
       <c r="I6">
-        <v>0.06189253666422249</v>
+        <v>0.03400624288804818</v>
       </c>
       <c r="J6">
-        <v>14855.11243044869</v>
+        <v>7030.335033449262</v>
       </c>
       <c r="K6">
-        <v>0.06984715874677341</v>
+        <v>0.007325995429676573</v>
       </c>
       <c r="L6">
-        <v>16764.33786774332</v>
+        <v>1514.551386746874</v>
       </c>
       <c r="M6">
-        <v>0.6835550004343635</v>
+        <v>0.2270599845815523</v>
       </c>
       <c r="N6">
-        <v>164063.1800072536</v>
+        <v>46941.60920844255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -771,31 +757,31 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>81852.39999999999</v>
+        <v>284225.2</v>
       </c>
       <c r="E7">
-        <v>0.2689808492758571</v>
+        <v>0.1872835723600599</v>
       </c>
       <c r="F7">
-        <v>22016.72806726716</v>
+        <v>53230.71081075249</v>
       </c>
       <c r="G7">
-        <v>0.04333012732134963</v>
+        <v>0.03754958356608691</v>
       </c>
       <c r="H7">
-        <v>3546.674913558038</v>
+        <v>10672.53789898776</v>
       </c>
       <c r="I7">
-        <v>0.04938489432196676</v>
+        <v>0.04144026090971219</v>
       </c>
       <c r="J7">
-        <v>4042.272123999352</v>
+        <v>11778.36644511513</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -804,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6383041290808265</v>
+        <v>0.733726583164141</v>
       </c>
       <c r="N7">
-        <v>52246.72489517544</v>
+        <v>208543.5848451446</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -815,43 +801,43 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>94049.89999999999</v>
+        <v>114132.2</v>
       </c>
       <c r="E8">
-        <v>0.9116616171590927</v>
+        <v>0.1882137145618398</v>
       </c>
       <c r="F8">
-        <v>85741.68392765094</v>
+        <v>21481.24531311481</v>
       </c>
       <c r="G8">
-        <v>0.04399914443831638</v>
+        <v>0.007789697560398346</v>
       </c>
       <c r="H8">
-        <v>4138.115134509211</v>
+        <v>889.055319902896</v>
       </c>
       <c r="I8">
-        <v>0.01477974613419698</v>
+        <v>0.009686416762132676</v>
       </c>
       <c r="J8">
-        <v>1390.033645946613</v>
+        <v>1105.532055179079</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.006059639820584171</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>691.6000239308768</v>
       </c>
       <c r="M8">
-        <v>0.02955949226839396</v>
+        <v>0.7882505312950452</v>
       </c>
       <c r="N8">
-        <v>2780.067291893225</v>
+        <v>89964.76728787235</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -859,43 +845,43 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>71100.39999999999</v>
+        <v>82380.2</v>
       </c>
       <c r="E9">
-        <v>0.5679609682845597</v>
+        <v>0.1160369888531314</v>
       </c>
       <c r="F9">
-        <v>40382.25202941951</v>
+        <v>9559.150349118732</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.07180708958870648</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5915.482401735557</v>
       </c>
       <c r="I9">
-        <v>0.04206303326728966</v>
+        <v>0.0681406259967192</v>
       </c>
       <c r="J9">
-        <v>2990.698490517601</v>
+        <v>5613.438397734927</v>
       </c>
       <c r="K9">
-        <v>0.065966629446729</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4690.253740314211</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3240093690014216</v>
+        <v>0.744015295561443</v>
       </c>
       <c r="N9">
-        <v>23037.19573974867</v>
+        <v>61292.12885141078</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -903,43 +889,43 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>206736.6</v>
+        <v>77969.5</v>
       </c>
       <c r="E10">
-        <v>0.4099084468293059</v>
+        <v>0.2086694046749435</v>
       </c>
       <c r="F10">
-        <v>84743.07860877148</v>
+        <v>16269.84914780301</v>
       </c>
       <c r="G10">
-        <v>0.09929655485403847</v>
+        <v>0.01628805362541219</v>
       </c>
       <c r="H10">
-        <v>20528.23214223741</v>
+        <v>1269.971397146576</v>
       </c>
       <c r="I10">
-        <v>0.02643518085941034</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5465.119411259572</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.04921594712963829</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10174.73757536118</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.415143870327607</v>
+        <v>0.7750425416996443</v>
       </c>
       <c r="N10">
-        <v>85825.43226237035</v>
+        <v>60429.67945505041</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -947,43 +933,43 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>79356.89999999999</v>
+        <v>469612.4999999999</v>
       </c>
       <c r="E11">
-        <v>0.4299121697265338</v>
+        <v>0.1169438138095854</v>
       </c>
       <c r="F11">
-        <v>34116.49706177157</v>
+        <v>54918.27676265391</v>
       </c>
       <c r="G11">
-        <v>0.002073464810094382</v>
+        <v>0.03470913534334934</v>
       </c>
       <c r="H11">
-        <v>164.5437395881789</v>
+        <v>16299.84382142864</v>
       </c>
       <c r="I11">
-        <v>0.003799352282231198</v>
+        <v>0.08536717093880261</v>
       </c>
       <c r="J11">
-        <v>301.5048191257929</v>
+        <v>40089.49056249844</v>
       </c>
       <c r="K11">
-        <v>0.0318523232285255</v>
+        <v>0.005844972484602758</v>
       </c>
       <c r="L11">
-        <v>2527.701629213775</v>
+        <v>2744.872140925513</v>
       </c>
       <c r="M11">
-        <v>0.532362689952615</v>
+        <v>0.7571349074236601</v>
       </c>
       <c r="N11">
-        <v>42246.65275030067</v>
+        <v>355560.0167124935</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -991,43 +977,43 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>94126.89999999999</v>
+        <v>93762.89999999999</v>
       </c>
       <c r="E12">
-        <v>0.2001274017281461</v>
+        <v>0.1003960752542983</v>
       </c>
       <c r="F12">
-        <v>18837.37192972504</v>
+        <v>9413.427164461247</v>
       </c>
       <c r="G12">
-        <v>0.008701100869589655</v>
+        <v>0.0682753056414052</v>
       </c>
       <c r="H12">
-        <v>819.0076514417784</v>
+        <v>6401.690655324512</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.04040134292182181</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3788.147076244486</v>
       </c>
       <c r="K12">
-        <v>0.00622904936348577</v>
+        <v>0.0853468825743558</v>
       </c>
       <c r="L12">
-        <v>586.3211065318886</v>
+        <v>8002.371216131065</v>
       </c>
       <c r="M12">
-        <v>0.7849424480387784</v>
+        <v>0.705580393608119</v>
       </c>
       <c r="N12">
-        <v>73884.19931230129</v>
+        <v>66157.26388783869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1035,43 +1021,43 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>82380.2</v>
+        <v>103387.2</v>
       </c>
       <c r="E13">
-        <v>0.9013952900419885</v>
+        <v>0.4046234986914399</v>
       </c>
       <c r="F13">
-        <v>74257.12427271702</v>
+        <v>41832.89058391163</v>
       </c>
       <c r="G13">
-        <v>0.03080809978851995</v>
+        <v>0.01343353261945315</v>
       </c>
       <c r="H13">
-        <v>2537.977422198231</v>
+        <v>1388.855323633927</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.08945697768818638</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9248.706443644061</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.03467423134314167</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3584.871690719656</v>
       </c>
       <c r="M13">
-        <v>0.06779661016949153</v>
+        <v>0.4578117596577789</v>
       </c>
       <c r="N13">
-        <v>5585.098305084745</v>
+        <v>47331.87595809072</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1079,43 +1065,43 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>75315.79999999999</v>
+        <v>94049.89999999999</v>
       </c>
       <c r="E14">
-        <v>0.2975858521016974</v>
+        <v>0.2591856046133704</v>
       </c>
       <c r="F14">
-        <v>22412.91651972101</v>
+        <v>24376.38019532702</v>
       </c>
       <c r="G14">
-        <v>0.04419353895982836</v>
+        <v>0.07129430104075923</v>
       </c>
       <c r="H14">
-        <v>3328.47174159064</v>
+        <v>6705.221883453301</v>
       </c>
       <c r="I14">
-        <v>0.02037655305713799</v>
+        <v>0.002966297586844558</v>
       </c>
       <c r="J14">
-        <v>1534.676394740793</v>
+        <v>278.979991412972</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.00382324922694461</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>359.5762074692178</v>
       </c>
       <c r="M14">
-        <v>0.6378440558813364</v>
+        <v>0.662730547532081</v>
       </c>
       <c r="N14">
-        <v>48039.73534394755</v>
+        <v>62329.74172233747</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1123,31 +1109,31 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>49284.2</v>
+        <v>240014.6</v>
       </c>
       <c r="E15">
-        <v>0.4075625042924179</v>
+        <v>0.07560939053357719</v>
       </c>
       <c r="F15">
-        <v>20086.39197404838</v>
+        <v>18147.35762516032</v>
       </c>
       <c r="G15">
-        <v>0.05977305113826745</v>
+        <v>0.03713165263980694</v>
       </c>
       <c r="H15">
-        <v>2945.8670069086</v>
+        <v>8912.138755682205</v>
       </c>
       <c r="I15">
-        <v>0.1499193248439344</v>
+        <v>0.05876198101251413</v>
       </c>
       <c r="J15">
-        <v>7388.653989473431</v>
+        <v>14103.73336792617</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1156,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3827451197253804</v>
+        <v>0.8284969758141019</v>
       </c>
       <c r="N15">
-        <v>18863.28702956959</v>
+        <v>198851.3702512313</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1167,43 +1153,43 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>469612.4999999999</v>
+        <v>173573.4</v>
       </c>
       <c r="E16">
-        <v>0.5423339201469525</v>
+        <v>0.3561280119320082</v>
       </c>
       <c r="F16">
-        <v>254686.7880750107</v>
+        <v>61814.34986627923</v>
       </c>
       <c r="G16">
-        <v>0.01184023204483496</v>
+        <v>0.05226636518263541</v>
       </c>
       <c r="H16">
-        <v>5560.320971155058</v>
+        <v>9072.050710391648</v>
       </c>
       <c r="I16">
-        <v>0.04374253058433061</v>
+        <v>0.05657233963608845</v>
       </c>
       <c r="J16">
-        <v>20542.03914403396</v>
+        <v>9819.453336590635</v>
       </c>
       <c r="K16">
-        <v>0.00498791576346342</v>
+        <v>0.01190812941526548</v>
       </c>
       <c r="L16">
-        <v>2342.387591469465</v>
+        <v>2066.934510247641</v>
       </c>
       <c r="M16">
-        <v>0.3970954014604183</v>
+        <v>0.5231251538340026</v>
       </c>
       <c r="N16">
-        <v>186480.9642183307</v>
+        <v>90800.61157649086</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1211,25 +1197,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>77969.5</v>
+        <v>70760.2</v>
       </c>
       <c r="E17">
-        <v>0.5037295276714084</v>
+        <v>0.1274054478544758</v>
       </c>
       <c r="F17">
-        <v>39275.53940777588</v>
+        <v>9015.234971272279</v>
       </c>
       <c r="G17">
-        <v>0.072908468205873</v>
+        <v>0.03127489503650524</v>
       </c>
       <c r="H17">
-        <v>5684.636811777815</v>
+        <v>2213.017827762118</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1244,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4233620041227185</v>
+        <v>0.8413196571090189</v>
       </c>
       <c r="N17">
-        <v>33009.3237804463</v>
+        <v>59531.94720096559</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1255,43 +1241,43 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>85275.39999999999</v>
+        <v>81840.5</v>
       </c>
       <c r="E18">
-        <v>0.5794695330329798</v>
+        <v>0.03473423693398327</v>
       </c>
       <c r="F18">
-        <v>49414.49621720056</v>
+        <v>2842.667317795658</v>
       </c>
       <c r="G18">
-        <v>0.01982536247675131</v>
+        <v>0.02768359375663226</v>
       </c>
       <c r="H18">
-        <v>1690.615715349959</v>
+        <v>2265.639154839663</v>
       </c>
       <c r="I18">
-        <v>0.1486395402461953</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12675.2962503104</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.009581019292773742</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>784.1154094302494</v>
       </c>
       <c r="M18">
-        <v>0.2520655642440736</v>
+        <v>0.9280011500166108</v>
       </c>
       <c r="N18">
-        <v>21494.99181713907</v>
+        <v>75948.07811793443</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1299,31 +1285,31 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>81840.5</v>
+        <v>85275.39999999999</v>
       </c>
       <c r="E19">
-        <v>0.425110886124771</v>
+        <v>0.0888697780287861</v>
       </c>
       <c r="F19">
-        <v>34791.28747589432</v>
+        <v>7578.405869315945</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0358442721614668</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3056.634646277946</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004061295469109814</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>346.328595646527</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1332,274 +1318,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.574889113875229</v>
+        <v>0.8712246543406373</v>
       </c>
       <c r="N19">
-        <v>47049.21252410568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>116609.5</v>
-      </c>
-      <c r="E20">
-        <v>0.3009418887326634</v>
-      </c>
-      <c r="F20">
-        <v>35092.68317417151</v>
-      </c>
-      <c r="G20">
-        <v>0.05616497909159434</v>
-      </c>
-      <c r="H20">
-        <v>6549.370129381269</v>
-      </c>
-      <c r="I20">
-        <v>0.04095319991323776</v>
-      </c>
-      <c r="J20">
-        <v>4775.532165282698</v>
-      </c>
-      <c r="K20">
-        <v>0.002975895707582842</v>
-      </c>
-      <c r="L20">
-        <v>347.0177105133814</v>
-      </c>
-      <c r="M20">
-        <v>0.5989640365549218</v>
-      </c>
-      <c r="N20">
-        <v>69844.89682065115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>103387.2</v>
-      </c>
-      <c r="E21">
-        <v>0.5418856215796917</v>
-      </c>
-      <c r="F21">
-        <v>56024.0371353839</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0.3454103423973967</v>
-      </c>
-      <c r="L21">
-        <v>35711.00815150813</v>
-      </c>
-      <c r="M21">
-        <v>0.1127040360229116</v>
-      </c>
-      <c r="N21">
-        <v>11652.15471310797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
-        <v>70760.2</v>
-      </c>
-      <c r="E22">
-        <v>0.7446340071447803</v>
-      </c>
-      <c r="F22">
-        <v>52690.45127236608</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0.009262706591208028</v>
-      </c>
-      <c r="J22">
-        <v>655.4309709351983</v>
-      </c>
-      <c r="K22">
-        <v>0.0140196668259835</v>
-      </c>
-      <c r="L22">
-        <v>992.0344285399576</v>
-      </c>
-      <c r="M22">
-        <v>0.2320836194380281</v>
-      </c>
-      <c r="N22">
-        <v>16422.28332815876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>114132.2</v>
-      </c>
-      <c r="E23">
-        <v>0.500738552437223</v>
-      </c>
-      <c r="F23">
-        <v>57150.39261447562</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0.4992614475627769</v>
-      </c>
-      <c r="N23">
-        <v>56981.80738552436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24">
-        <v>284225.2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>284225.2</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25">
-        <v>98820.39999999999</v>
-      </c>
-      <c r="E25">
-        <v>0.4207194630993307</v>
-      </c>
-      <c r="F25">
-        <v>41575.66563126109</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0.05758540220668155</v>
-      </c>
-      <c r="J25">
-        <v>5690.612480225153</v>
-      </c>
-      <c r="K25">
-        <v>0.04834251346264776</v>
-      </c>
-      <c r="L25">
-        <v>4777.226517384237</v>
-      </c>
-      <c r="M25">
-        <v>0.47335262123134</v>
-      </c>
-      <c r="N25">
-        <v>46776.89537112951</v>
+        <v>74294.03088875957</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1664,43 +1386,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>34728.6</v>
+        <v>13446.7</v>
       </c>
       <c r="E2">
-        <v>0.6433016769084512</v>
+        <v>0.2426229370728221</v>
       </c>
       <c r="F2">
-        <v>22340.96661668284</v>
+        <v>3262.477847937118</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02506868687231699</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>337.0911117659848</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005228707668551625</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>70.30886340671313</v>
       </c>
       <c r="K2">
-        <v>0.2318661609479286</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8052.387157096233</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1248321621436202</v>
+        <v>0.7270796683863092</v>
       </c>
       <c r="N2">
-        <v>4335.246226220928</v>
+        <v>9776.822176890184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1708,43 +1430,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>16532.2</v>
+        <v>7040.6</v>
       </c>
       <c r="E3">
-        <v>0.5533882858619658</v>
+        <v>0.4336784956730281</v>
       </c>
       <c r="F3">
-        <v>9148.725819527192</v>
+        <v>3053.356816635522</v>
       </c>
       <c r="G3">
-        <v>0.0427895209336489</v>
+        <v>0.02088111576663804</v>
       </c>
       <c r="H3">
-        <v>707.4049179792704</v>
+        <v>147.0155836665918</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.131383861364497</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>925.0212143228777</v>
       </c>
       <c r="K3">
-        <v>0.03955765934873092</v>
+        <v>0.04358758462301007</v>
       </c>
       <c r="L3">
-        <v>653.9751358850893</v>
+        <v>306.8827482967648</v>
       </c>
       <c r="M3">
-        <v>0.3642645338556544</v>
+        <v>0.3704689425728269</v>
       </c>
       <c r="N3">
-        <v>6022.094126608449</v>
+        <v>2608.323637078245</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1752,43 +1474,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>13394.7</v>
+        <v>10157.2</v>
       </c>
       <c r="E4">
-        <v>0.7513152500830661</v>
+        <v>0.3150371545085285</v>
       </c>
       <c r="F4">
-        <v>10063.64238028765</v>
+        <v>3199.895385774026</v>
       </c>
       <c r="G4">
-        <v>0.00598745161666156</v>
+        <v>0.01934439516444928</v>
       </c>
       <c r="H4">
-        <v>80.20011816969659</v>
+        <v>196.4848905643443</v>
       </c>
       <c r="I4">
-        <v>0.005943221585981021</v>
+        <v>0.1554537930998908</v>
       </c>
       <c r="J4">
-        <v>79.60767017773999</v>
+        <v>1578.975267274211</v>
       </c>
       <c r="K4">
-        <v>0.09465463897507151</v>
+        <v>0.04778293217081692</v>
       </c>
       <c r="L4">
-        <v>1267.870492679391</v>
+        <v>485.3407986454217</v>
       </c>
       <c r="M4">
-        <v>0.1420994377392197</v>
+        <v>0.4623817250563146</v>
       </c>
       <c r="N4">
-        <v>1903.379338685527</v>
+        <v>4696.503657741999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1796,175 +1518,395 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>24796.2</v>
+        <v>11336.7</v>
       </c>
       <c r="E5">
-        <v>0.6839078810694795</v>
+        <v>0.6750208985147803</v>
       </c>
       <c r="F5">
-        <v>16958.31660057503</v>
+        <v>7652.50942019251</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0141116480221623</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>159.9795201328474</v>
       </c>
       <c r="I5">
-        <v>0.06985819469392206</v>
+        <v>0.07063556884882345</v>
       </c>
       <c r="J5">
-        <v>1732.21776726943</v>
+        <v>800.7742533684569</v>
       </c>
       <c r="K5">
-        <v>0.2462339242365985</v>
+        <v>0.01118500928791521</v>
       </c>
       <c r="L5">
-        <v>6105.665632155544</v>
+        <v>126.8010947943084</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2290468753263188</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2596.635711511879</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>11336.7</v>
+        <v>29533.8</v>
       </c>
       <c r="E6">
-        <v>0.6579353698634105</v>
+        <v>0.8496592674492441</v>
       </c>
       <c r="F6">
-        <v>7458.815907530527</v>
+        <v>25093.66687299249</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0037147074351875</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>109.7094264493406</v>
       </c>
       <c r="I6">
-        <v>0.01181506105244861</v>
+        <v>0.02072036503236675</v>
       </c>
       <c r="J6">
-        <v>133.9438026332942</v>
+        <v>611.9511167929132</v>
       </c>
       <c r="K6">
-        <v>0.05475166210402815</v>
+        <v>0.09835252556705541</v>
       </c>
       <c r="L6">
-        <v>620.703167774736</v>
+        <v>2904.723819592301</v>
       </c>
       <c r="M6">
-        <v>0.2754979069801127</v>
+        <v>0.0275531345161463</v>
       </c>
       <c r="N6">
-        <v>3123.237122061444</v>
+        <v>813.7487641729615</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>12182.2</v>
+        <v>40603.60000000001</v>
       </c>
       <c r="E7">
-        <v>0.6886861461637087</v>
+        <v>0.5846672865738856</v>
       </c>
       <c r="F7">
-        <v>8389.712369795532</v>
+        <v>23739.59663713142</v>
       </c>
       <c r="G7">
-        <v>0.0721992037249477</v>
+        <v>0.01655882330338823</v>
       </c>
       <c r="H7">
-        <v>879.545139618058</v>
+        <v>672.3478378814544</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01365877181522666</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>554.5953072767375</v>
       </c>
       <c r="K7">
-        <v>0.0408772521762602</v>
+        <v>0.06287511431140348</v>
       </c>
       <c r="L7">
-        <v>497.9748614616371</v>
+        <v>2552.955991454503</v>
       </c>
       <c r="M7">
-        <v>0.1982373979350833</v>
+        <v>0.3222400039960961</v>
       </c>
       <c r="N7">
-        <v>2414.967629124772</v>
+        <v>13084.10422625589</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>40603.60000000001</v>
+        <v>16304.6</v>
       </c>
       <c r="E8">
-        <v>0.1839132655402984</v>
+        <v>0.2908559029629481</v>
       </c>
       <c r="F8">
-        <v>7467.54066869206</v>
+        <v>4742.289155449684</v>
       </c>
       <c r="G8">
-        <v>0.022875022338889</v>
+        <v>0.02630888111719543</v>
       </c>
       <c r="H8">
-        <v>928.8082570393136</v>
+        <v>428.9557830634246</v>
       </c>
       <c r="I8">
-        <v>0.008404305082329182</v>
+        <v>0.01854727742887343</v>
       </c>
       <c r="J8">
-        <v>341.2450418408612</v>
+        <v>302.4059395668098</v>
       </c>
       <c r="K8">
-        <v>0.1731163799964648</v>
+        <v>0.008170734808076561</v>
       </c>
       <c r="L8">
-        <v>7029.148246824461</v>
+        <v>133.2205627517651</v>
       </c>
       <c r="M8">
-        <v>0.6116910270420185</v>
+        <v>0.6561172036829066</v>
       </c>
       <c r="N8">
-        <v>24836.8577856033</v>
+        <v>10697.72855916832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>11138.5</v>
+      </c>
+      <c r="E9">
+        <v>0.4475311001319643</v>
+      </c>
+      <c r="F9">
+        <v>4984.825158819885</v>
+      </c>
+      <c r="G9">
+        <v>0.06838810389777591</v>
+      </c>
+      <c r="H9">
+        <v>761.740895265377</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.06857719913740384</v>
+      </c>
+      <c r="L9">
+        <v>763.8471325919727</v>
+      </c>
+      <c r="M9">
+        <v>0.4155035968328559</v>
+      </c>
+      <c r="N9">
+        <v>4628.086813322765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>13394.7</v>
+      </c>
+      <c r="E10">
+        <v>0.2971649363461268</v>
+      </c>
+      <c r="F10">
+        <v>3980.435172875465</v>
+      </c>
+      <c r="G10">
+        <v>0.04982936731035299</v>
+      </c>
+      <c r="H10">
+        <v>667.4494263119851</v>
+      </c>
+      <c r="I10">
+        <v>0.05015100841494961</v>
+      </c>
+      <c r="J10">
+        <v>671.7577124157256</v>
+      </c>
+      <c r="K10">
+        <v>0.1006854099958024</v>
+      </c>
+      <c r="L10">
+        <v>1348.650861270774</v>
+      </c>
+      <c r="M10">
+        <v>0.5021692779327682</v>
+      </c>
+      <c r="N10">
+        <v>6726.406827126051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>14769.6</v>
+      </c>
+      <c r="E11">
+        <v>0.5239368020521683</v>
+      </c>
+      <c r="F11">
+        <v>7738.336991589706</v>
+      </c>
+      <c r="G11">
+        <v>0.006273883039833852</v>
+      </c>
+      <c r="H11">
+        <v>92.66274294513006</v>
+      </c>
+      <c r="I11">
+        <v>0.01581897779235981</v>
+      </c>
+      <c r="J11">
+        <v>233.6399744020375</v>
+      </c>
+      <c r="K11">
+        <v>0.1682180288052877</v>
+      </c>
+      <c r="L11">
+        <v>2484.512998242576</v>
+      </c>
+      <c r="M11">
+        <v>0.2857523083103504</v>
+      </c>
+      <c r="N11">
+        <v>4220.447292820551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>34287.8</v>
+      </c>
+      <c r="E12">
+        <v>0.4070933402959037</v>
+      </c>
+      <c r="F12">
+        <v>13958.33503339789</v>
+      </c>
+      <c r="G12">
+        <v>0.03399366882833411</v>
+      </c>
+      <c r="H12">
+        <v>1165.568118052154</v>
+      </c>
+      <c r="I12">
+        <v>0.03007389693012179</v>
+      </c>
+      <c r="J12">
+        <v>1031.16776316063</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.5288390939456403</v>
+      </c>
+      <c r="N12">
+        <v>18132.72908538933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>24796.2</v>
+      </c>
+      <c r="E13">
+        <v>0.7759527737604651</v>
+      </c>
+      <c r="F13">
+        <v>19240.68016871925</v>
+      </c>
+      <c r="G13">
+        <v>0.02169159504541076</v>
+      </c>
+      <c r="H13">
+        <v>537.8691290650142</v>
+      </c>
+      <c r="I13">
+        <v>0.02877742456985824</v>
+      </c>
+      <c r="J13">
+        <v>713.570775119119</v>
+      </c>
+      <c r="K13">
+        <v>0.006993990205383963</v>
+      </c>
+      <c r="L13">
+        <v>173.4243799307418</v>
+      </c>
+      <c r="M13">
+        <v>0.166584216418882</v>
+      </c>
+      <c r="N13">
+        <v>4130.655547165882</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2029,43 +1971,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>69457.2</v>
+        <v>6723.35</v>
       </c>
       <c r="E2">
-        <v>0.7992269420723547</v>
+        <v>0.3400868198891201</v>
       </c>
       <c r="F2">
-        <v>55512.06556090795</v>
+        <v>2286.522720501516</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.03846662107082834</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>258.6245567765537</v>
       </c>
       <c r="I2">
-        <v>0.07899362576940855</v>
+        <v>0.01327940817651306</v>
       </c>
       <c r="J2">
-        <v>5486.676063790963</v>
+        <v>89.2821089635591</v>
       </c>
       <c r="K2">
-        <v>0.06532293871493565</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4537.148418911028</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.05645649344330097</v>
+        <v>0.6081671508635386</v>
       </c>
       <c r="N2">
-        <v>3921.309956390044</v>
+        <v>4088.920613758372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2073,43 +2015,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>33064.4</v>
+        <v>3520.3</v>
       </c>
       <c r="E3">
-        <v>0.7648183526349268</v>
+        <v>0.5278500081069208</v>
       </c>
       <c r="F3">
-        <v>25288.25993886228</v>
+        <v>1858.190383538794</v>
       </c>
       <c r="G3">
-        <v>0.0215344373893752</v>
+        <v>0.01647929186106463</v>
       </c>
       <c r="H3">
-        <v>712.0232516172573</v>
+        <v>58.01205113850583</v>
       </c>
       <c r="I3">
-        <v>0.007947170467775893</v>
+        <v>0.1737530716965391</v>
       </c>
       <c r="J3">
-        <v>262.7684232147292</v>
+        <v>611.6629382933266</v>
       </c>
       <c r="K3">
-        <v>0.00734564401580736</v>
+        <v>0.09086971096335258</v>
       </c>
       <c r="L3">
-        <v>242.8793119962609</v>
+        <v>319.8886435042901</v>
       </c>
       <c r="M3">
-        <v>0.1983543954921146</v>
+        <v>0.1910479173721227</v>
       </c>
       <c r="N3">
-        <v>6558.469074309476</v>
+        <v>672.5459835250836</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2117,43 +2059,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>26789.4</v>
+        <v>5078.6</v>
       </c>
       <c r="E4">
-        <v>0.7495597081708685</v>
+        <v>0.496576401269164</v>
       </c>
       <c r="F4">
-        <v>20080.25484607266</v>
+        <v>2521.912911485576</v>
       </c>
       <c r="G4">
-        <v>0.01754245595791219</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>469.9518696388927</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008491895486240323</v>
+        <v>0.01384972521066438</v>
       </c>
       <c r="J4">
-        <v>227.4927849390865</v>
+        <v>70.3372144548801</v>
       </c>
       <c r="K4">
-        <v>0.05953196028293179</v>
+        <v>0.003063023867225012</v>
       </c>
       <c r="L4">
-        <v>1594.825496803573</v>
+        <v>15.55587301208895</v>
       </c>
       <c r="M4">
-        <v>0.1648739801020473</v>
+        <v>0.4865108496529467</v>
       </c>
       <c r="N4">
-        <v>4416.875002545786</v>
+        <v>2470.794001047455</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2161,43 +2103,43 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>49592.4</v>
+        <v>5668.35</v>
       </c>
       <c r="E5">
-        <v>0.2702802395757917</v>
+        <v>0.5452639954740335</v>
       </c>
       <c r="F5">
-        <v>13403.84575313849</v>
+        <v>3090.747168745238</v>
       </c>
       <c r="G5">
-        <v>0.007968785323264204</v>
+        <v>0.03280459832046614</v>
       </c>
       <c r="H5">
-        <v>395.1911892654477</v>
+        <v>185.9479448898143</v>
       </c>
       <c r="I5">
-        <v>0.07257440957387444</v>
+        <v>0.01211494646582049</v>
       </c>
       <c r="J5">
-        <v>3599.139149351411</v>
+        <v>68.67175679953355</v>
       </c>
       <c r="K5">
-        <v>0.1282211239916326</v>
+        <v>0.009534933842376286</v>
       </c>
       <c r="L5">
-        <v>6358.793269442639</v>
+        <v>54.04734224543363</v>
       </c>
       <c r="M5">
-        <v>0.520955441535437</v>
+        <v>0.4002815258973036</v>
       </c>
       <c r="N5">
-        <v>25835.43063880201</v>
+        <v>2268.935787319982</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2205,69 +2147,69 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>68575.60000000001</v>
+        <v>14766.9</v>
       </c>
       <c r="E6">
-        <v>0.4477914138796211</v>
+        <v>0.9140766633737528</v>
       </c>
       <c r="F6">
-        <v>30707.56488164335</v>
+        <v>13498.07868037387</v>
       </c>
       <c r="G6">
-        <v>0.01051496767002743</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>721.0702169527329</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04653909894650771</v>
+        <v>0.005889900886915553</v>
       </c>
       <c r="J6">
-        <v>3191.446633716134</v>
+        <v>86.9755774069933</v>
       </c>
       <c r="K6">
-        <v>0.1667846947938645</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>11437.36051630613</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3283698247099794</v>
+        <v>0.0800334357393315</v>
       </c>
       <c r="N6">
-        <v>22518.15775138166</v>
+        <v>1181.845742219135</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>26871.4</v>
+        <v>20301.8</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.4114189095907737</v>
       </c>
       <c r="F7">
-        <v>26871.4</v>
+        <v>8352.544418729971</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.05769576196081867</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1171.327820176149</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2282,54 +2224,54 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5308853284484077</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10777.92776109389</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>20314.4</v>
+        <v>8152.3</v>
       </c>
       <c r="E8">
-        <v>0.4969378496382671</v>
+        <v>0.4179434544174377</v>
       </c>
       <c r="F8">
-        <v>10094.99425269161</v>
+        <v>3407.200423447277</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.03719436782537369</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>303.2196448227939</v>
       </c>
       <c r="I8">
-        <v>0.05006096929547049</v>
+        <v>0.07093768992439149</v>
       </c>
       <c r="J8">
-        <v>1016.958554655906</v>
+        <v>578.3053295706168</v>
       </c>
       <c r="K8">
-        <v>0.2372337411790682</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4819.261111808063</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2157674398871943</v>
+        <v>0.4739244878327971</v>
       </c>
       <c r="N8">
-        <v>4383.18608084442</v>
+        <v>3863.574602159312</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2337,163 +2279,163 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>59067.60000000001</v>
+        <v>5569.25</v>
       </c>
       <c r="E9">
-        <v>0.2485921992948206</v>
+        <v>0.4734545591297394</v>
       </c>
       <c r="F9">
-        <v>14683.74459106675</v>
+        <v>2636.786803433301</v>
       </c>
       <c r="G9">
-        <v>0.3071258719253527</v>
+        <v>0.09276801760789188</v>
       </c>
       <c r="H9">
-        <v>18141.18815253796</v>
+        <v>516.6482820627518</v>
       </c>
       <c r="I9">
-        <v>0.08978947641377531</v>
+        <v>0.08361027100635751</v>
       </c>
       <c r="J9">
-        <v>5303.648877018315</v>
+        <v>465.6465018021566</v>
       </c>
       <c r="K9">
-        <v>0.009930820655826629</v>
+        <v>0.08232916623781739</v>
       </c>
       <c r="L9">
-        <v>586.5897421701051</v>
+        <v>458.5117090699645</v>
       </c>
       <c r="M9">
-        <v>0.3445616317102246</v>
+        <v>0.2678379860181938</v>
       </c>
       <c r="N9">
-        <v>20352.42863720687</v>
+        <v>1491.656703631826</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>22673.4</v>
+        <v>6697.35</v>
       </c>
       <c r="E10">
-        <v>0.5426108919312971</v>
+        <v>0.2408423651795799</v>
       </c>
       <c r="F10">
-        <v>12302.83379711507</v>
+        <v>1613.00561443546</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1407727642291499</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>942.8044725100972</v>
       </c>
       <c r="I10">
-        <v>0.01875235612574371</v>
+        <v>0.06094677896773838</v>
       </c>
       <c r="J10">
-        <v>425.1796713814374</v>
+        <v>408.1819101195827</v>
       </c>
       <c r="K10">
-        <v>0.004007532273483273</v>
+        <v>0.0183294865312477</v>
       </c>
       <c r="L10">
-        <v>90.86438224959564</v>
+        <v>122.7589866200518</v>
       </c>
       <c r="M10">
-        <v>0.4346292196694759</v>
+        <v>0.5391086050922841</v>
       </c>
       <c r="N10">
-        <v>9854.522149253895</v>
+        <v>3610.599016314809</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>26893.4</v>
+        <v>7384.8</v>
       </c>
       <c r="E11">
-        <v>0.4530113958963566</v>
+        <v>0.5176298907765188</v>
       </c>
       <c r="F11">
-        <v>12183.01667439908</v>
+        <v>3822.593217406436</v>
       </c>
       <c r="G11">
-        <v>0.008113467825072291</v>
+        <v>0.04760675302590989</v>
       </c>
       <c r="H11">
-        <v>218.1987356067991</v>
+        <v>351.5663497457394</v>
       </c>
       <c r="I11">
-        <v>0.0111736067447489</v>
+        <v>0.05483031490966658</v>
       </c>
       <c r="J11">
-        <v>300.4962756292301</v>
+        <v>404.9109095449057</v>
       </c>
       <c r="K11">
-        <v>0.02051862906435645</v>
+        <v>0.04012052473862453</v>
       </c>
       <c r="L11">
-        <v>551.8156988793637</v>
+        <v>296.2820510897944</v>
       </c>
       <c r="M11">
-        <v>0.5071829004694658</v>
+        <v>0.3398125165492802</v>
       </c>
       <c r="N11">
-        <v>13639.87261548553</v>
+        <v>2509.447472213125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>23537.2</v>
+        <v>17143.9</v>
       </c>
       <c r="E12">
-        <v>0.8891157359238765</v>
+        <v>0.1889815235295328</v>
       </c>
       <c r="F12">
-        <v>20927.29489958746</v>
+        <v>3239.880341237957</v>
       </c>
       <c r="G12">
-        <v>0.0570098070834233</v>
+        <v>0.1686701171268247</v>
       </c>
       <c r="H12">
-        <v>1341.851231283951</v>
+        <v>2891.663621010571</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006012724824483814</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>103.0815531184681</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2502,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.05387445699270006</v>
+        <v>0.6363356345191588</v>
       </c>
       <c r="N12">
-        <v>1268.05386912858</v>
+        <v>10909.27448463301</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2513,263 +2455,144 @@
         <v>28</v>
       </c>
       <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>12398.1</v>
+      </c>
+      <c r="E13">
+        <v>0.4694503648999054</v>
+      </c>
+      <c r="F13">
+        <v>5820.292569065517</v>
+      </c>
+      <c r="G13">
+        <v>0.0564599996025666</v>
+      </c>
+      <c r="H13">
+        <v>699.9967210725811</v>
+      </c>
+      <c r="I13">
+        <v>0.03328402781422332</v>
+      </c>
+      <c r="J13">
+        <v>412.6587052435221</v>
+      </c>
+      <c r="K13">
+        <v>0.05667298314016202</v>
+      </c>
+      <c r="L13">
+        <v>702.6373122700428</v>
+      </c>
+      <c r="M13">
+        <v>0.3841326245431427</v>
+      </c>
+      <c r="N13">
+        <v>4762.514692348337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>134175</v>
-      </c>
-      <c r="E13">
-        <v>0.2595467020189806</v>
-      </c>
-      <c r="F13">
-        <v>34824.67874339672</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.7404532979810194</v>
-      </c>
-      <c r="N13">
-        <v>99350.32125660329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>24364.4</v>
-      </c>
-      <c r="E14">
-        <v>0.3268731220829387</v>
-      </c>
-      <c r="F14">
-        <v>7964.067495677551</v>
-      </c>
-      <c r="G14">
-        <v>0.04509677214318252</v>
-      </c>
-      <c r="H14">
-        <v>1098.755795205356</v>
-      </c>
-      <c r="I14">
-        <v>0.008169862668472404</v>
-      </c>
-      <c r="J14">
-        <v>199.053801999729</v>
-      </c>
-      <c r="K14">
-        <v>0.09404792636697308</v>
-      </c>
-      <c r="L14">
-        <v>2291.421297175479</v>
-      </c>
-      <c r="M14">
-        <v>0.5258123167384334</v>
-      </c>
-      <c r="N14">
-        <v>12811.10160994189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>23383</v>
-      </c>
-      <c r="E15">
-        <v>0.9307800726479247</v>
-      </c>
-      <c r="F15">
-        <v>21764.43043872642</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0.06921992735207536</v>
-      </c>
-      <c r="N15">
-        <v>1618.569561273578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>29539.2</v>
-      </c>
-      <c r="E16">
-        <v>0.2088718887334435</v>
-      </c>
-      <c r="F16">
-        <v>6169.908495674933</v>
-      </c>
-      <c r="G16">
-        <v>0.00896551538235524</v>
-      </c>
-      <c r="H16">
-        <v>264.8341519824679</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0.7821625958842012</v>
-      </c>
-      <c r="L16">
-        <v>23104.4573523426</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>32609.2</v>
-      </c>
-      <c r="E17">
-        <v>0.3515268636561792</v>
-      </c>
-      <c r="F17">
-        <v>11463.00980233708</v>
-      </c>
-      <c r="G17">
-        <v>0.01223298493338579</v>
-      </c>
-      <c r="H17">
-        <v>398.9078522897638</v>
-      </c>
-      <c r="I17">
-        <v>0.01498465338989959</v>
-      </c>
-      <c r="J17">
-        <v>488.6375593219137</v>
-      </c>
-      <c r="K17">
-        <v>0.004962838520345778</v>
-      </c>
-      <c r="L17">
-        <v>161.8341938776595</v>
-      </c>
-      <c r="M17">
-        <v>0.6162926595001896</v>
-      </c>
-      <c r="N17">
-        <v>20096.81059217358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>81207.20000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.07757937827656473</v>
-      </c>
-      <c r="F18">
-        <v>6300.004087580649</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.06066822268849129</v>
-      </c>
-      <c r="J18">
-        <v>4926.69649350885</v>
-      </c>
-      <c r="K18">
-        <v>0.2951311835239057</v>
-      </c>
-      <c r="L18">
-        <v>23966.77704666252</v>
-      </c>
-      <c r="M18">
-        <v>0.5666212155110383</v>
-      </c>
-      <c r="N18">
-        <v>46013.722372248</v>
+      <c r="D2">
+        <v>22154.4</v>
+      </c>
+      <c r="E2">
+        <v>0.602881773731628</v>
+      </c>
+      <c r="F2">
+        <v>13356.48396795998</v>
+      </c>
+      <c r="G2">
+        <v>0.01827519474462199</v>
+      </c>
+      <c r="H2">
+        <v>404.8759744502535</v>
+      </c>
+      <c r="I2">
+        <v>0.01024067412438933</v>
+      </c>
+      <c r="J2">
+        <v>226.8759908213709</v>
+      </c>
+      <c r="K2">
+        <v>0.04748247324371463</v>
+      </c>
+      <c r="L2">
+        <v>1051.945705230551</v>
+      </c>
+      <c r="M2">
+        <v>0.3211198841556461</v>
+      </c>
+      <c r="N2">
+        <v>7114.218361537846</v>
       </c>
     </row>
   </sheetData>

--- a/output_test/dimension_per_admin_status_test0.xlsx
+++ b/output_test/dimension_per_admin_status_test0.xlsx
@@ -7,19 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ocap" sheetId="1" r:id="rId1"/>
-    <sheet name="idp" sheetId="2" r:id="rId2"/>
-    <sheet name="ret" sheetId="3" r:id="rId3"/>
-    <sheet name="ndsp" sheetId="4" r:id="rId4"/>
+    <sheet name="Host Community" sheetId="1" r:id="rId1"/>
+    <sheet name="New IDPs" sheetId="2" r:id="rId2"/>
+    <sheet name="Protracted IDPs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+  <si>
+    <t>admin_2</t>
   </si>
   <si>
     <t>Admin Pcode</t>
@@ -61,70 +60,85 @@
     <t># Not falling within the PiN dimensions</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
-  </si>
-  <si>
-    <t>ocap</t>
-  </si>
-  <si>
-    <t>idp</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>ndsp</t>
+    <t>afgooye</t>
+  </si>
+  <si>
+    <t>baardheere</t>
+  </si>
+  <si>
+    <t>banadir</t>
+  </si>
+  <si>
+    <t>baraawe</t>
+  </si>
+  <si>
+    <t>baydhaba</t>
+  </si>
+  <si>
+    <t>borama</t>
+  </si>
+  <si>
+    <t>buur_hakaba</t>
+  </si>
+  <si>
+    <t>ceel_waaq</t>
+  </si>
+  <si>
+    <t>diinsoor</t>
+  </si>
+  <si>
+    <t>gaalkacyo</t>
+  </si>
+  <si>
+    <t>galdogob</t>
+  </si>
+  <si>
+    <t>garbahaarey</t>
+  </si>
+  <si>
+    <t>gebiley</t>
+  </si>
+  <si>
+    <t>hargeysa</t>
+  </si>
+  <si>
+    <t>hobyo</t>
+  </si>
+  <si>
+    <t>jariiban</t>
+  </si>
+  <si>
+    <t>kismaayo</t>
+  </si>
+  <si>
+    <t>marka</t>
+  </si>
+  <si>
+    <t>owdweyne</t>
+  </si>
+  <si>
+    <t>qansax_dheere</t>
+  </si>
+  <si>
+    <t>qoryooley</t>
+  </si>
+  <si>
+    <t>waajid</t>
+  </si>
+  <si>
+    <t>wanla_weyn</t>
+  </si>
+  <si>
+    <t>xudur</t>
+  </si>
+  <si>
+    <t>Host Community</t>
+  </si>
+  <si>
+    <t>New IDPs</t>
+  </si>
+  <si>
+    <t>Protracted IDPs</t>
   </si>
 </sst>
 </file>
@@ -482,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,43 +551,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>94126.89999999999</v>
+        <v>243100.2</v>
       </c>
       <c r="E2">
-        <v>0.21517515988475</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>20253.77075695587</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.02729271835183012</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2568.978971030878</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01164686119579419</v>
+        <v>0.260922251514731</v>
       </c>
       <c r="J2">
-        <v>1096.2829390904</v>
+        <v>63430.25152768141</v>
       </c>
       <c r="K2">
-        <v>0.007435901286586845</v>
+        <v>0.3718699412608112</v>
       </c>
       <c r="L2">
-        <v>699.9183368124312</v>
+        <v>90401.65709449146</v>
       </c>
       <c r="M2">
-        <v>0.7384493592810388</v>
+        <v>0.3672078072244576</v>
       </c>
       <c r="N2">
-        <v>69507.94899611041</v>
+        <v>89268.29137782709</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -581,43 +595,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>49284.2</v>
+        <v>115725.4</v>
       </c>
       <c r="E3">
-        <v>0.6153634681803213</v>
+        <v>0.6208405109924784</v>
       </c>
       <c r="F3">
-        <v>30327.69623849259</v>
+        <v>71847.01647080896</v>
       </c>
       <c r="G3">
-        <v>0.002634282573917212</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>129.8285092294507</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03274021894796379</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1613.575498675237</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03758695195660464</v>
+        <v>0.0538836110589961</v>
       </c>
       <c r="L3">
-        <v>1852.442857619694</v>
+        <v>6235.702443246747</v>
       </c>
       <c r="M3">
-        <v>0.3116750783411931</v>
+        <v>0.3252758779485255</v>
       </c>
       <c r="N3">
-        <v>15360.65689598303</v>
+        <v>37642.68108594429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -625,43 +639,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>71100.39999999999</v>
+        <v>93762.89999999999</v>
       </c>
       <c r="E4">
-        <v>0.3782536674377708</v>
+        <v>0.464790151397916</v>
       </c>
       <c r="F4">
-        <v>26893.98705629248</v>
+        <v>43580.07248650766</v>
       </c>
       <c r="G4">
-        <v>0.04232706828847271</v>
+        <v>0.01319815201691943</v>
       </c>
       <c r="H4">
-        <v>3009.471486137725</v>
+        <v>1237.497007747214</v>
       </c>
       <c r="I4">
-        <v>0.01569933698188069</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1116.22913914651</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01911967413694302</v>
+        <v>0.113471867584855</v>
       </c>
       <c r="L4">
-        <v>1359.416479006303</v>
+        <v>10639.451373172</v>
       </c>
       <c r="M4">
-        <v>0.5446002531549328</v>
+        <v>0.4085398290003095</v>
       </c>
       <c r="N4">
-        <v>38721.29583941698</v>
+        <v>38305.87913257311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -669,43 +683,43 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>79356.89999999999</v>
+        <v>173573.4</v>
       </c>
       <c r="E5">
-        <v>0.6407800059695816</v>
+        <v>0.5737217598097504</v>
       </c>
       <c r="F5">
-        <v>50850.31485572749</v>
+        <v>99582.83650416172</v>
       </c>
       <c r="G5">
-        <v>0.02503239058499825</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1986.492916414647</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01098830617893219</v>
+        <v>0.1431156886060013</v>
       </c>
       <c r="J5">
-        <v>871.9979146109039</v>
+        <v>24841.0766646849</v>
       </c>
       <c r="K5">
-        <v>0.01540841196257678</v>
+        <v>0.1431156886060013</v>
       </c>
       <c r="L5">
-        <v>1222.763807273009</v>
+        <v>24841.0766646849</v>
       </c>
       <c r="M5">
-        <v>0.3077908853039111</v>
+        <v>0.1400468629782472</v>
       </c>
       <c r="N5">
-        <v>24425.33050597394</v>
+        <v>24308.41016646849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -713,43 +727,43 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>206736.6</v>
+        <v>240014.6</v>
       </c>
       <c r="E6">
-        <v>0.6778543106902455</v>
+        <v>0.1972117770891789</v>
       </c>
       <c r="F6">
-        <v>140137.295487445</v>
+        <v>47333.70579334844</v>
       </c>
       <c r="G6">
-        <v>0.05375346641047739</v>
+        <v>0.007946468433740167</v>
       </c>
       <c r="H6">
-        <v>11112.8088839163</v>
+        <v>1907.268442536772</v>
       </c>
       <c r="I6">
-        <v>0.03400624288804818</v>
+        <v>0.05065188274485444</v>
       </c>
       <c r="J6">
-        <v>7030.335033449262</v>
+        <v>12157.19137625314</v>
       </c>
       <c r="K6">
-        <v>0.007325995429676573</v>
+        <v>0.06004738117200921</v>
       </c>
       <c r="L6">
-        <v>1514.551386746874</v>
+        <v>14412.24817304732</v>
       </c>
       <c r="M6">
-        <v>0.2270599845815523</v>
+        <v>0.6841424905602174</v>
       </c>
       <c r="N6">
-        <v>46941.60920844255</v>
+        <v>164204.1862148143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -757,31 +771,31 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>284225.2</v>
+        <v>81852.39999999999</v>
       </c>
       <c r="E7">
-        <v>0.1872835723600599</v>
+        <v>0.3037000528839756</v>
       </c>
       <c r="F7">
-        <v>53230.71081075249</v>
+        <v>24858.57820868032</v>
       </c>
       <c r="G7">
-        <v>0.03754958356608691</v>
+        <v>0.03587750494514114</v>
       </c>
       <c r="H7">
-        <v>10672.53789898776</v>
+        <v>2936.659885771671</v>
       </c>
       <c r="I7">
-        <v>0.04144026090971219</v>
+        <v>0.05280249356278471</v>
       </c>
       <c r="J7">
-        <v>11778.36644511513</v>
+        <v>4322.010824098478</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -790,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.733726583164141</v>
+        <v>0.6076199486080985</v>
       </c>
       <c r="N7">
-        <v>208543.5848451446</v>
+        <v>49735.15108144952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -801,43 +815,43 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>114132.2</v>
+        <v>94049.89999999999</v>
       </c>
       <c r="E8">
-        <v>0.1882137145618398</v>
+        <v>0.9246505971784841</v>
       </c>
       <c r="F8">
-        <v>21481.24531311481</v>
+        <v>86963.29619957671</v>
       </c>
       <c r="G8">
-        <v>0.007789697560398346</v>
+        <v>0.04157372466564666</v>
       </c>
       <c r="H8">
-        <v>889.055319902896</v>
+        <v>3910.004647431601</v>
       </c>
       <c r="I8">
-        <v>0.009686416762132676</v>
+        <v>0.01125855938528975</v>
       </c>
       <c r="J8">
-        <v>1105.532055179079</v>
+        <v>1058.866384330563</v>
       </c>
       <c r="K8">
-        <v>0.006059639820584171</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>691.6000239308768</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7882505312950452</v>
+        <v>0.0225171187705795</v>
       </c>
       <c r="N8">
-        <v>89964.76728787235</v>
+        <v>2117.732768661125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -845,43 +859,43 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>82380.2</v>
+        <v>71100.39999999999</v>
       </c>
       <c r="E9">
-        <v>0.1160369888531314</v>
+        <v>0.5600018645207487</v>
       </c>
       <c r="F9">
-        <v>9559.150349118732</v>
+        <v>39816.35656817104</v>
       </c>
       <c r="G9">
-        <v>0.07180708958870648</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>5915.482401735557</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0681406259967192</v>
+        <v>0.04704642061604558</v>
       </c>
       <c r="J9">
-        <v>5613.438397734927</v>
+        <v>3345.019324369087</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.08075606316361565</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5741.788393358338</v>
       </c>
       <c r="M9">
-        <v>0.744015295561443</v>
+        <v>0.31219565169959</v>
       </c>
       <c r="N9">
-        <v>61292.12885141078</v>
+        <v>22197.23571410153</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -889,43 +903,43 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>77969.5</v>
+        <v>206736.6</v>
       </c>
       <c r="E10">
-        <v>0.2086694046749435</v>
+        <v>0.3892010802343647</v>
       </c>
       <c r="F10">
-        <v>16269.84914780301</v>
+        <v>80462.10804397975</v>
       </c>
       <c r="G10">
-        <v>0.01628805362541219</v>
+        <v>0.1093958419821987</v>
       </c>
       <c r="H10">
-        <v>1269.971397146576</v>
+        <v>22616.12442553701</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.04588856124252631</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9486.845130171665</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.04863907874782976</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10055.47776745858</v>
       </c>
       <c r="M10">
-        <v>0.7750425416996443</v>
+        <v>0.4068754377930806</v>
       </c>
       <c r="N10">
-        <v>60429.67945505041</v>
+        <v>84116.04463285298</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -933,43 +947,43 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>469612.4999999999</v>
+        <v>79356.89999999999</v>
       </c>
       <c r="E11">
-        <v>0.1169438138095854</v>
+        <v>0.4054498232144743</v>
       </c>
       <c r="F11">
-        <v>54918.27676265391</v>
+        <v>32175.24107584871</v>
       </c>
       <c r="G11">
-        <v>0.03470913534334934</v>
+        <v>0.003243685051355287</v>
       </c>
       <c r="H11">
-        <v>16299.84382142864</v>
+        <v>257.4087902518964</v>
       </c>
       <c r="I11">
-        <v>0.08536717093880261</v>
+        <v>0.005094335236257162</v>
       </c>
       <c r="J11">
-        <v>40089.49056249844</v>
+        <v>404.270651910136</v>
       </c>
       <c r="K11">
-        <v>0.005844972484602758</v>
+        <v>0.02701541413166677</v>
       </c>
       <c r="L11">
-        <v>2744.872140925513</v>
+        <v>2143.859517705267</v>
       </c>
       <c r="M11">
-        <v>0.7571349074236601</v>
+        <v>0.5591967423662464</v>
       </c>
       <c r="N11">
-        <v>355560.0167124935</v>
+        <v>44376.11996428398</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -977,43 +991,43 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>93762.89999999999</v>
+        <v>94126.89999999999</v>
       </c>
       <c r="E12">
-        <v>0.1003960752542983</v>
+        <v>0.2045517653843689</v>
       </c>
       <c r="F12">
-        <v>9413.427164461247</v>
+        <v>19253.82356515796</v>
       </c>
       <c r="G12">
-        <v>0.0682753056414052</v>
+        <v>0.006622034934400101</v>
       </c>
       <c r="H12">
-        <v>6401.690655324512</v>
+        <v>623.3116200667848</v>
       </c>
       <c r="I12">
-        <v>0.04040134292182181</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3788.147076244486</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.0853468825743558</v>
+        <v>0.006716628168237627</v>
       </c>
       <c r="L12">
-        <v>8002.371216131065</v>
+        <v>632.2153879288862</v>
       </c>
       <c r="M12">
-        <v>0.705580393608119</v>
+        <v>0.7821095715129933</v>
       </c>
       <c r="N12">
-        <v>66157.26388783869</v>
+        <v>73617.54942684637</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1021,43 +1035,43 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>103387.2</v>
+        <v>82380.2</v>
       </c>
       <c r="E13">
-        <v>0.4046234986914399</v>
+        <v>0.8684315927247759</v>
       </c>
       <c r="F13">
-        <v>41832.89058391163</v>
+        <v>71541.56829498558</v>
       </c>
       <c r="G13">
-        <v>0.01343353261945315</v>
+        <v>0.03029316892795582</v>
       </c>
       <c r="H13">
-        <v>1388.855323633927</v>
+        <v>2495.557314918786</v>
       </c>
       <c r="I13">
-        <v>0.08945697768818638</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9248.706443644061</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.03467423134314167</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3584.871690719656</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4578117596577789</v>
+        <v>0.1012752383472682</v>
       </c>
       <c r="N13">
-        <v>47331.87595809072</v>
+        <v>8343.074390095622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1065,43 +1079,43 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>94049.89999999999</v>
+        <v>75315.79999999999</v>
       </c>
       <c r="E14">
-        <v>0.2591856046133704</v>
+        <v>0.3004812921785847</v>
       </c>
       <c r="F14">
-        <v>24376.38019532702</v>
+        <v>22630.98890546384</v>
       </c>
       <c r="G14">
-        <v>0.07129430104075923</v>
+        <v>0.04116402572890764</v>
       </c>
       <c r="H14">
-        <v>6705.221883453301</v>
+        <v>3100.301528993261</v>
       </c>
       <c r="I14">
-        <v>0.002966297586844558</v>
+        <v>0.0217439605392365</v>
       </c>
       <c r="J14">
-        <v>278.979991412972</v>
+        <v>1637.663783181028</v>
       </c>
       <c r="K14">
-        <v>0.00382324922694461</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>359.5762074692178</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.662730547532081</v>
+        <v>0.6366107215532713</v>
       </c>
       <c r="N14">
-        <v>62329.74172233747</v>
+        <v>47946.84578236186</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1109,31 +1123,31 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>240014.6</v>
+        <v>49284.2</v>
       </c>
       <c r="E15">
-        <v>0.07560939053357719</v>
+        <v>0.4131467075191162</v>
       </c>
       <c r="F15">
-        <v>18147.35762516032</v>
+        <v>20361.60496271362</v>
       </c>
       <c r="G15">
-        <v>0.03713165263980694</v>
+        <v>0.05155522640403935</v>
       </c>
       <c r="H15">
-        <v>8912.138755682205</v>
+        <v>2540.858089141956</v>
       </c>
       <c r="I15">
-        <v>0.05876198101251413</v>
+        <v>0.1362730807101895</v>
       </c>
       <c r="J15">
-        <v>14103.73336792617</v>
+        <v>6716.109764337123</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1142,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8284969758141019</v>
+        <v>0.3990249853666549</v>
       </c>
       <c r="N15">
-        <v>198851.3702512313</v>
+        <v>19665.62718380729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1153,43 +1167,43 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>173573.4</v>
+        <v>469612.4999999999</v>
       </c>
       <c r="E16">
-        <v>0.3561280119320082</v>
+        <v>0.5498071102510669</v>
       </c>
       <c r="F16">
-        <v>61814.34986627923</v>
+        <v>258196.2915627791</v>
       </c>
       <c r="G16">
-        <v>0.05226636518263541</v>
+        <v>0.01208019677058082</v>
       </c>
       <c r="H16">
-        <v>9072.050710391648</v>
+        <v>5673.011405924382</v>
       </c>
       <c r="I16">
-        <v>0.05657233963608845</v>
+        <v>0.05038391882504714</v>
       </c>
       <c r="J16">
-        <v>9819.453336590635</v>
+        <v>23660.91807922745</v>
       </c>
       <c r="K16">
-        <v>0.01190812941526548</v>
+        <v>0.003650905881852593</v>
       </c>
       <c r="L16">
-        <v>2066.934510247641</v>
+        <v>1714.511038441501</v>
       </c>
       <c r="M16">
-        <v>0.5231251538340026</v>
+        <v>0.3840778682714527</v>
       </c>
       <c r="N16">
-        <v>90800.61157649086</v>
+        <v>180367.7679136276</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1197,25 +1211,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>70760.2</v>
+        <v>77969.5</v>
       </c>
       <c r="E17">
-        <v>0.1274054478544758</v>
+        <v>0.5297489775426738</v>
       </c>
       <c r="F17">
-        <v>9015.234971272279</v>
+        <v>41304.2629045135</v>
       </c>
       <c r="G17">
-        <v>0.03127489503650524</v>
+        <v>0.0780316574012849</v>
       </c>
       <c r="H17">
-        <v>2213.017827762118</v>
+        <v>6084.089311749482</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1230,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8413196571090189</v>
+        <v>0.3922193650560413</v>
       </c>
       <c r="N17">
-        <v>59531.94720096559</v>
+        <v>30581.14778373701</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1241,43 +1255,43 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>81840.5</v>
+        <v>85275.39999999999</v>
       </c>
       <c r="E18">
-        <v>0.03473423693398327</v>
+        <v>0.5130870576500934</v>
       </c>
       <c r="F18">
-        <v>2842.667317795658</v>
+        <v>43753.70407593477</v>
       </c>
       <c r="G18">
-        <v>0.02768359375663226</v>
+        <v>0.02421810808932637</v>
       </c>
       <c r="H18">
-        <v>2265.639154839663</v>
+        <v>2065.208854560542</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1314510425906774</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11209.54023733705</v>
       </c>
       <c r="K18">
-        <v>0.009581019292773742</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>784.1154094302494</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9280011500166108</v>
+        <v>0.3312437916699028</v>
       </c>
       <c r="N18">
-        <v>75948.07811793443</v>
+        <v>28246.94683216763</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1285,43 +1299,307 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>81840.5</v>
+      </c>
+      <c r="E19">
+        <v>0.3653472154516392</v>
+      </c>
+      <c r="F19">
+        <v>29900.19878616988</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.6346527845483608</v>
+      </c>
+      <c r="N19">
+        <v>51940.30121383013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="D19">
-        <v>85275.39999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.0888697780287861</v>
-      </c>
-      <c r="F19">
-        <v>7578.405869315945</v>
-      </c>
-      <c r="G19">
-        <v>0.0358442721614668</v>
-      </c>
-      <c r="H19">
-        <v>3056.634646277946</v>
-      </c>
-      <c r="I19">
-        <v>0.004061295469109814</v>
-      </c>
-      <c r="J19">
-        <v>346.328595646527</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0.8712246543406373</v>
-      </c>
-      <c r="N19">
-        <v>74294.03088875957</v>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>116609.5</v>
+      </c>
+      <c r="E20">
+        <v>0.2752420673158468</v>
+      </c>
+      <c r="F20">
+        <v>32095.83984866724</v>
+      </c>
+      <c r="G20">
+        <v>0.05652592335199702</v>
+      </c>
+      <c r="H20">
+        <v>6591.459659114696</v>
+      </c>
+      <c r="I20">
+        <v>0.04793304171873524</v>
+      </c>
+      <c r="J20">
+        <v>5589.448028300856</v>
+      </c>
+      <c r="K20">
+        <v>0.003491918253784159</v>
+      </c>
+      <c r="L20">
+        <v>407.1908416146438</v>
+      </c>
+      <c r="M20">
+        <v>0.6168070493596366</v>
+      </c>
+      <c r="N20">
+        <v>71925.56162230253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>103387.2</v>
+      </c>
+      <c r="E21">
+        <v>0.6625331773167042</v>
+      </c>
+      <c r="F21">
+        <v>68497.45010987757</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.2605715536021766</v>
+      </c>
+      <c r="L21">
+        <v>26939.76332657895</v>
+      </c>
+      <c r="M21">
+        <v>0.07689526908111914</v>
+      </c>
+      <c r="N21">
+        <v>7949.986563543481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>70760.2</v>
+      </c>
+      <c r="E22">
+        <v>0.7401897667003893</v>
+      </c>
+      <c r="F22">
+        <v>52375.97592967288</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.009306309206290813</v>
+      </c>
+      <c r="J22">
+        <v>658.5163006989792</v>
+      </c>
+      <c r="K22">
+        <v>0.01943013785421585</v>
+      </c>
+      <c r="L22">
+        <v>1374.880440591884</v>
+      </c>
+      <c r="M22">
+        <v>0.231073786239104</v>
+      </c>
+      <c r="N22">
+        <v>16350.82732903624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>114132.2</v>
+      </c>
+      <c r="E23">
+        <v>0.5061784197760363</v>
+      </c>
+      <c r="F23">
+        <v>57771.25664156253</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.4938215802239637</v>
+      </c>
+      <c r="N23">
+        <v>56360.94335843747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>284225.2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>284225.2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>98820.39999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.3933273757275713</v>
+      </c>
+      <c r="F25">
+        <v>38868.76860034889</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.05122641494459585</v>
+      </c>
+      <c r="J25">
+        <v>5062.214815390939</v>
+      </c>
+      <c r="K25">
+        <v>0.0472534432157103</v>
+      </c>
+      <c r="L25">
+        <v>4669.604159953778</v>
+      </c>
+      <c r="M25">
+        <v>0.5081927661121226</v>
+      </c>
+      <c r="N25">
+        <v>50219.8124243064</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,43 +1664,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>13446.7</v>
+        <v>34728.6</v>
       </c>
       <c r="E2">
-        <v>0.2426229370728221</v>
+        <v>0.6874544397211916</v>
       </c>
       <c r="F2">
-        <v>3262.477847937118</v>
+        <v>23874.33025530137</v>
       </c>
       <c r="G2">
-        <v>0.02506868687231699</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>337.0911117659848</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005228707668551625</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>70.30886340671313</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2422455381641563</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8412.848396687717</v>
       </c>
       <c r="M2">
-        <v>0.7270796683863092</v>
+        <v>0.07030002211465218</v>
       </c>
       <c r="N2">
-        <v>9776.822176890184</v>
+        <v>2441.42134801091</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1430,43 +1708,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>7040.6</v>
+        <v>16532.2</v>
       </c>
       <c r="E3">
-        <v>0.4336784956730281</v>
+        <v>0.5500018251403253</v>
       </c>
       <c r="F3">
-        <v>3053.356816635522</v>
+        <v>9092.740173584885</v>
       </c>
       <c r="G3">
-        <v>0.02088111576663804</v>
+        <v>0.04918893571855774</v>
       </c>
       <c r="H3">
-        <v>147.0155836665918</v>
+        <v>813.2013230863404</v>
       </c>
       <c r="I3">
-        <v>0.131383861364497</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>925.0212143228777</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.04358758462301007</v>
+        <v>0.03283287049646624</v>
       </c>
       <c r="L3">
-        <v>306.8827482967648</v>
+        <v>542.7995816216793</v>
       </c>
       <c r="M3">
-        <v>0.3704689425728269</v>
+        <v>0.3679763686446508</v>
       </c>
       <c r="N3">
-        <v>2608.323637078245</v>
+        <v>6083.458921707096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1474,43 +1752,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>10157.2</v>
+        <v>13394.7</v>
       </c>
       <c r="E4">
-        <v>0.3150371545085285</v>
+        <v>0.7449455545783435</v>
       </c>
       <c r="F4">
-        <v>3199.895385774026</v>
+        <v>9978.322219910538</v>
       </c>
       <c r="G4">
-        <v>0.01934439516444928</v>
+        <v>0.005863482426470046</v>
       </c>
       <c r="H4">
-        <v>196.4848905643443</v>
+        <v>78.53958805783833</v>
       </c>
       <c r="I4">
-        <v>0.1554537930998908</v>
+        <v>0.005537955231079126</v>
       </c>
       <c r="J4">
-        <v>1578.975267274211</v>
+        <v>74.17924893373558</v>
       </c>
       <c r="K4">
-        <v>0.04778293217081692</v>
+        <v>0.08624095947512155</v>
       </c>
       <c r="L4">
-        <v>485.3407986454217</v>
+        <v>1155.171779881411</v>
       </c>
       <c r="M4">
-        <v>0.4623817250563146</v>
+        <v>0.1574120482889858</v>
       </c>
       <c r="N4">
-        <v>4696.503657741999</v>
+        <v>2108.487163216478</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1518,395 +1796,175 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>11336.7</v>
+        <v>24796.2</v>
       </c>
       <c r="E5">
-        <v>0.6750208985147803</v>
+        <v>0.7086677720876315</v>
       </c>
       <c r="F5">
-        <v>7652.50942019251</v>
+        <v>17572.26781023933</v>
       </c>
       <c r="G5">
-        <v>0.0141116480221623</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>159.9795201328474</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.07063556884882345</v>
+        <v>0.05945061556295764</v>
       </c>
       <c r="J5">
-        <v>800.7742533684569</v>
+        <v>1474.14935362221</v>
       </c>
       <c r="K5">
-        <v>0.01118500928791521</v>
+        <v>0.2318816123494108</v>
       </c>
       <c r="L5">
-        <v>126.8010947943084</v>
+        <v>5749.782836138462</v>
       </c>
       <c r="M5">
-        <v>0.2290468753263188</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2596.635711511879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>29533.8</v>
+        <v>11336.7</v>
       </c>
       <c r="E6">
-        <v>0.8496592674492441</v>
+        <v>0.5530524262552454</v>
       </c>
       <c r="F6">
-        <v>25093.66687299249</v>
+        <v>6269.789440727841</v>
       </c>
       <c r="G6">
-        <v>0.0037147074351875</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>109.7094264493406</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02072036503236675</v>
+        <v>0.02556037058129658</v>
       </c>
       <c r="J6">
-        <v>611.9511167929132</v>
+        <v>289.770253168985</v>
       </c>
       <c r="K6">
-        <v>0.09835252556705541</v>
+        <v>0.05146216178020067</v>
       </c>
       <c r="L6">
-        <v>2904.723819592301</v>
+        <v>583.411089453601</v>
       </c>
       <c r="M6">
-        <v>0.0275531345161463</v>
+        <v>0.3699250413832572</v>
       </c>
       <c r="N6">
-        <v>813.7487641729615</v>
+        <v>4193.729216649573</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>40603.60000000001</v>
+        <v>12182.2</v>
       </c>
       <c r="E7">
-        <v>0.5846672865738856</v>
+        <v>0.7074330049782862</v>
       </c>
       <c r="F7">
-        <v>23739.59663713142</v>
+        <v>8618.090353246478</v>
       </c>
       <c r="G7">
-        <v>0.01655882330338823</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="H7">
-        <v>672.3478378814544</v>
+        <v>845.9861111111111</v>
       </c>
       <c r="I7">
-        <v>0.01365877181522666</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>554.5953072767375</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.06287511431140348</v>
+        <v>0.03865233202697455</v>
       </c>
       <c r="L7">
-        <v>2552.955991454503</v>
+        <v>470.8704392190093</v>
       </c>
       <c r="M7">
-        <v>0.3222400039960961</v>
+        <v>0.1844702185502948</v>
       </c>
       <c r="N7">
-        <v>13084.10422625589</v>
+        <v>2247.253096423402</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>16304.6</v>
+        <v>40603.60000000001</v>
       </c>
       <c r="E8">
-        <v>0.2908559029629481</v>
+        <v>0.2047853531677419</v>
       </c>
       <c r="F8">
-        <v>4742.289155449684</v>
+        <v>8315.022565881727</v>
       </c>
       <c r="G8">
-        <v>0.02630888111719543</v>
+        <v>0.02740364160943096</v>
       </c>
       <c r="H8">
-        <v>428.9557830634246</v>
+        <v>1112.686502452691</v>
       </c>
       <c r="I8">
-        <v>0.01854727742887343</v>
+        <v>0.01715521686331709</v>
       </c>
       <c r="J8">
-        <v>302.4059395668098</v>
+        <v>696.5635634313817</v>
       </c>
       <c r="K8">
-        <v>0.008170734808076561</v>
+        <v>0.1760048612395974</v>
       </c>
       <c r="L8">
-        <v>133.2205627517651</v>
+        <v>7146.430983828116</v>
       </c>
       <c r="M8">
-        <v>0.6561172036829066</v>
+        <v>0.5746509271199128</v>
       </c>
       <c r="N8">
-        <v>10697.72855916832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>11138.5</v>
-      </c>
-      <c r="E9">
-        <v>0.4475311001319643</v>
-      </c>
-      <c r="F9">
-        <v>4984.825158819885</v>
-      </c>
-      <c r="G9">
-        <v>0.06838810389777591</v>
-      </c>
-      <c r="H9">
-        <v>761.740895265377</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.06857719913740384</v>
-      </c>
-      <c r="L9">
-        <v>763.8471325919727</v>
-      </c>
-      <c r="M9">
-        <v>0.4155035968328559</v>
-      </c>
-      <c r="N9">
-        <v>4628.086813322765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>13394.7</v>
-      </c>
-      <c r="E10">
-        <v>0.2971649363461268</v>
-      </c>
-      <c r="F10">
-        <v>3980.435172875465</v>
-      </c>
-      <c r="G10">
-        <v>0.04982936731035299</v>
-      </c>
-      <c r="H10">
-        <v>667.4494263119851</v>
-      </c>
-      <c r="I10">
-        <v>0.05015100841494961</v>
-      </c>
-      <c r="J10">
-        <v>671.7577124157256</v>
-      </c>
-      <c r="K10">
-        <v>0.1006854099958024</v>
-      </c>
-      <c r="L10">
-        <v>1348.650861270774</v>
-      </c>
-      <c r="M10">
-        <v>0.5021692779327682</v>
-      </c>
-      <c r="N10">
-        <v>6726.406827126051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>14769.6</v>
-      </c>
-      <c r="E11">
-        <v>0.5239368020521683</v>
-      </c>
-      <c r="F11">
-        <v>7738.336991589706</v>
-      </c>
-      <c r="G11">
-        <v>0.006273883039833852</v>
-      </c>
-      <c r="H11">
-        <v>92.66274294513006</v>
-      </c>
-      <c r="I11">
-        <v>0.01581897779235981</v>
-      </c>
-      <c r="J11">
-        <v>233.6399744020375</v>
-      </c>
-      <c r="K11">
-        <v>0.1682180288052877</v>
-      </c>
-      <c r="L11">
-        <v>2484.512998242576</v>
-      </c>
-      <c r="M11">
-        <v>0.2857523083103504</v>
-      </c>
-      <c r="N11">
-        <v>4220.447292820551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>34287.8</v>
-      </c>
-      <c r="E12">
-        <v>0.4070933402959037</v>
-      </c>
-      <c r="F12">
-        <v>13958.33503339789</v>
-      </c>
-      <c r="G12">
-        <v>0.03399366882833411</v>
-      </c>
-      <c r="H12">
-        <v>1165.568118052154</v>
-      </c>
-      <c r="I12">
-        <v>0.03007389693012179</v>
-      </c>
-      <c r="J12">
-        <v>1031.16776316063</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0.5288390939456403</v>
-      </c>
-      <c r="N12">
-        <v>18132.72908538933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>24796.2</v>
-      </c>
-      <c r="E13">
-        <v>0.7759527737604651</v>
-      </c>
-      <c r="F13">
-        <v>19240.68016871925</v>
-      </c>
-      <c r="G13">
-        <v>0.02169159504541076</v>
-      </c>
-      <c r="H13">
-        <v>537.8691290650142</v>
-      </c>
-      <c r="I13">
-        <v>0.02877742456985824</v>
-      </c>
-      <c r="J13">
-        <v>713.570775119119</v>
-      </c>
-      <c r="K13">
-        <v>0.006993990205383963</v>
-      </c>
-      <c r="L13">
-        <v>173.4243799307418</v>
-      </c>
-      <c r="M13">
-        <v>0.166584216418882</v>
-      </c>
-      <c r="N13">
-        <v>4130.655547165882</v>
+        <v>23332.8963844061</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1971,43 +2029,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>6723.35</v>
+        <v>69457.2</v>
       </c>
       <c r="E2">
-        <v>0.3400868198891201</v>
+        <v>0.7845535445906263</v>
       </c>
       <c r="F2">
-        <v>2286.522720501516</v>
+        <v>54492.89245734005</v>
       </c>
       <c r="G2">
-        <v>0.03846662107082834</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>258.6245567765537</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01327940817651306</v>
+        <v>0.07152333001919119</v>
       </c>
       <c r="J2">
-        <v>89.2821089635591</v>
+        <v>4967.810237808966</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.08413200305209367</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5843.57336238988</v>
       </c>
       <c r="M2">
-        <v>0.6081671508635386</v>
+        <v>0.05979112233808874</v>
       </c>
       <c r="N2">
-        <v>4088.920613758372</v>
+        <v>4152.923942461097</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2015,43 +2073,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>3520.3</v>
+        <v>33064.4</v>
       </c>
       <c r="E3">
-        <v>0.5278500081069208</v>
+        <v>0.7696865906040607</v>
       </c>
       <c r="F3">
-        <v>1858.190383538794</v>
+        <v>25449.22530636891</v>
       </c>
       <c r="G3">
-        <v>0.01647929186106463</v>
+        <v>0.02048108710157833</v>
       </c>
       <c r="H3">
-        <v>58.01205113850583</v>
+        <v>677.1948563614267</v>
       </c>
       <c r="I3">
-        <v>0.1737530716965391</v>
+        <v>0.007943188997054412</v>
       </c>
       <c r="J3">
-        <v>611.6629382933266</v>
+        <v>262.6367782742059</v>
       </c>
       <c r="K3">
-        <v>0.09086971096335258</v>
+        <v>0.008288743596964599</v>
       </c>
       <c r="L3">
-        <v>319.8886435042901</v>
+        <v>274.0623337874763</v>
       </c>
       <c r="M3">
-        <v>0.1910479173721227</v>
+        <v>0.1936003897003417</v>
       </c>
       <c r="N3">
-        <v>672.5459835250836</v>
+        <v>6401.280725207979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2059,43 +2117,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>5078.6</v>
+        <v>26789.4</v>
       </c>
       <c r="E4">
-        <v>0.496576401269164</v>
+        <v>0.7398057469156331</v>
       </c>
       <c r="F4">
-        <v>2521.912911485576</v>
+        <v>19818.95207642166</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01348242298991398</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>361.1860224460016</v>
       </c>
       <c r="I4">
-        <v>0.01384972521066438</v>
+        <v>0.01106305415530584</v>
       </c>
       <c r="J4">
-        <v>70.3372144548801</v>
+        <v>296.3725829881503</v>
       </c>
       <c r="K4">
-        <v>0.003063023867225012</v>
+        <v>0.07440051670738818</v>
       </c>
       <c r="L4">
-        <v>15.55587301208895</v>
+        <v>1993.145202280905</v>
       </c>
       <c r="M4">
-        <v>0.4865108496529467</v>
+        <v>0.1612482592317589</v>
       </c>
       <c r="N4">
-        <v>2470.794001047455</v>
+        <v>4319.744115863283</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2103,43 +2161,43 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>5668.35</v>
+        <v>49592.4</v>
       </c>
       <c r="E5">
-        <v>0.5452639954740335</v>
+        <v>0.2788760947295088</v>
       </c>
       <c r="F5">
-        <v>3090.747168745238</v>
+        <v>13830.13484026369</v>
       </c>
       <c r="G5">
-        <v>0.03280459832046614</v>
+        <v>0.007544283153007776</v>
       </c>
       <c r="H5">
-        <v>185.9479448898143</v>
+        <v>374.1391078372229</v>
       </c>
       <c r="I5">
-        <v>0.01211494646582049</v>
+        <v>0.06819507790175008</v>
       </c>
       <c r="J5">
-        <v>68.67175679953355</v>
+        <v>3381.957581334751</v>
       </c>
       <c r="K5">
-        <v>0.009534933842376286</v>
+        <v>0.1130939090909356</v>
       </c>
       <c r="L5">
-        <v>54.04734224543363</v>
+        <v>5608.598377201317</v>
       </c>
       <c r="M5">
-        <v>0.4002815258973036</v>
+        <v>0.5322906351247978</v>
       </c>
       <c r="N5">
-        <v>2268.935787319982</v>
+        <v>26397.57009336302</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2147,69 +2205,69 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>14766.9</v>
+        <v>68575.60000000001</v>
       </c>
       <c r="E6">
-        <v>0.9140766633737528</v>
+        <v>0.4741284140924409</v>
       </c>
       <c r="F6">
-        <v>13498.07868037387</v>
+        <v>32513.64047343759</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01546760814941169</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1060.700509410796</v>
       </c>
       <c r="I6">
-        <v>0.005889900886915553</v>
+        <v>0.03994932015670308</v>
       </c>
       <c r="J6">
-        <v>86.9755774069933</v>
+        <v>2739.548599338008</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1483396497691929</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10172.48048671227</v>
       </c>
       <c r="M6">
-        <v>0.0800334357393315</v>
+        <v>0.3221150078322514</v>
       </c>
       <c r="N6">
-        <v>1181.845742219135</v>
+        <v>22089.22993110134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>20301.8</v>
+        <v>26871.4</v>
       </c>
       <c r="E7">
-        <v>0.4114189095907737</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>8352.544418729971</v>
+        <v>26871.4</v>
       </c>
       <c r="G7">
-        <v>0.05769576196081867</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1171.327820176149</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2224,54 +2282,54 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5308853284484077</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>10777.92776109389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>8152.3</v>
+        <v>20314.4</v>
       </c>
       <c r="E8">
-        <v>0.4179434544174377</v>
+        <v>0.5168661349048977</v>
       </c>
       <c r="F8">
-        <v>3407.200423447277</v>
+        <v>10499.82541091206</v>
       </c>
       <c r="G8">
-        <v>0.03719436782537369</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>303.2196448227939</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07093768992439149</v>
+        <v>0.03238156267488376</v>
       </c>
       <c r="J8">
-        <v>578.3053295706168</v>
+        <v>657.8120168026586</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2187083301667139</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4442.928502338693</v>
       </c>
       <c r="M8">
-        <v>0.4739244878327971</v>
+        <v>0.2320439722535046</v>
       </c>
       <c r="N8">
-        <v>3863.574602159312</v>
+        <v>4713.834069946593</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2279,163 +2337,163 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>5569.25</v>
+        <v>59067.60000000001</v>
       </c>
       <c r="E9">
-        <v>0.4734545591297394</v>
+        <v>0.2329840982074471</v>
       </c>
       <c r="F9">
-        <v>2636.786803433301</v>
+        <v>13761.8115192782</v>
       </c>
       <c r="G9">
-        <v>0.09276801760789188</v>
+        <v>0.3009774367406596</v>
       </c>
       <c r="H9">
-        <v>516.6482820627518</v>
+        <v>17778.01484242258</v>
       </c>
       <c r="I9">
-        <v>0.08361027100635751</v>
+        <v>0.07062279092972434</v>
       </c>
       <c r="J9">
-        <v>465.6465018021566</v>
+        <v>4171.518765520586</v>
       </c>
       <c r="K9">
-        <v>0.08232916623781739</v>
+        <v>0.00890865779876468</v>
       </c>
       <c r="L9">
-        <v>458.5117090699645</v>
+        <v>526.2130353943127</v>
       </c>
       <c r="M9">
-        <v>0.2678379860181938</v>
+        <v>0.3865070163234044</v>
       </c>
       <c r="N9">
-        <v>1491.656703631826</v>
+        <v>22830.04183738432</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>6697.35</v>
+        <v>22673.4</v>
       </c>
       <c r="E10">
-        <v>0.2408423651795799</v>
+        <v>0.5275067162821403</v>
       </c>
       <c r="F10">
-        <v>1613.00561443546</v>
+        <v>11960.37078095148</v>
       </c>
       <c r="G10">
-        <v>0.1407727642291499</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>942.8044725100972</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06094677896773838</v>
+        <v>0.01973841365927952</v>
       </c>
       <c r="J10">
-        <v>408.1819101195827</v>
+        <v>447.5369482623082</v>
       </c>
       <c r="K10">
-        <v>0.0183294865312477</v>
+        <v>0.007860716348736103</v>
       </c>
       <c r="L10">
-        <v>122.7589866200518</v>
+        <v>178.2291660614332</v>
       </c>
       <c r="M10">
-        <v>0.5391086050922841</v>
+        <v>0.4448941537098441</v>
       </c>
       <c r="N10">
-        <v>3610.599016314809</v>
+        <v>10087.26310472478</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>7384.8</v>
+        <v>26893.4</v>
       </c>
       <c r="E11">
-        <v>0.5176298907765188</v>
+        <v>0.4348717860766683</v>
       </c>
       <c r="F11">
-        <v>3822.593217406436</v>
+        <v>11695.18089167427</v>
       </c>
       <c r="G11">
-        <v>0.04760675302590989</v>
+        <v>0.01052242806363712</v>
       </c>
       <c r="H11">
-        <v>351.5663497457394</v>
+        <v>282.9838668866184</v>
       </c>
       <c r="I11">
-        <v>0.05483031490966658</v>
+        <v>0.01038841487929241</v>
       </c>
       <c r="J11">
-        <v>404.9109095449057</v>
+        <v>279.3797967147625</v>
       </c>
       <c r="K11">
-        <v>0.04012052473862453</v>
+        <v>0.02580571438599626</v>
       </c>
       <c r="L11">
-        <v>296.2820510897944</v>
+        <v>694.0033992683518</v>
       </c>
       <c r="M11">
-        <v>0.3398125165492802</v>
+        <v>0.5184116565944059</v>
       </c>
       <c r="N11">
-        <v>2509.447472213125</v>
+        <v>13941.852045456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>17143.9</v>
+        <v>23537.2</v>
       </c>
       <c r="E12">
-        <v>0.1889815235295328</v>
+        <v>0.8994031748300262</v>
       </c>
       <c r="F12">
-        <v>3239.880341237957</v>
+        <v>21169.43240660929</v>
       </c>
       <c r="G12">
-        <v>0.1686701171268247</v>
+        <v>0.05851685446785198</v>
       </c>
       <c r="H12">
-        <v>2891.663621010571</v>
+        <v>1377.322906980726</v>
       </c>
       <c r="I12">
-        <v>0.006012724824483814</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>103.0815531184681</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2444,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6363356345191588</v>
+        <v>0.04207997070212186</v>
       </c>
       <c r="N12">
-        <v>10909.27448463301</v>
+        <v>990.4446864099828</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2455,144 +2513,263 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>12398.1</v>
+        <v>134175</v>
       </c>
       <c r="E13">
-        <v>0.4694503648999054</v>
+        <v>0.2420819490586932</v>
       </c>
       <c r="F13">
-        <v>5820.292569065517</v>
+        <v>32481.34551495016</v>
       </c>
       <c r="G13">
-        <v>0.0564599996025666</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>699.9967210725811</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03328402781422332</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>412.6587052435221</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.05667298314016202</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>702.6373122700428</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3841326245431427</v>
+        <v>0.7579180509413067</v>
       </c>
       <c r="N13">
-        <v>4762.514692348337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>101693.6544850498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>24364.4</v>
+      </c>
+      <c r="E14">
+        <v>0.340786315864604</v>
+      </c>
+      <c r="F14">
+        <v>8303.054114251558</v>
+      </c>
+      <c r="G14">
+        <v>0.04509204985457595</v>
+      </c>
+      <c r="H14">
+        <v>1098.640739476831</v>
+      </c>
+      <c r="I14">
+        <v>0.01018748996306408</v>
+      </c>
+      <c r="J14">
+        <v>248.2120804560784</v>
+      </c>
+      <c r="K14">
+        <v>0.06847086165979693</v>
+      </c>
+      <c r="L14">
+        <v>1668.251461823957</v>
+      </c>
+      <c r="M14">
+        <v>0.5354632826579591</v>
+      </c>
+      <c r="N14">
+        <v>13046.24160399158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>23383</v>
+      </c>
+      <c r="E15">
+        <v>0.9359368206926308</v>
+      </c>
+      <c r="F15">
+        <v>21885.01067825579</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.06406317930736923</v>
+      </c>
+      <c r="N15">
+        <v>1497.989321744215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>29539.2</v>
+      </c>
+      <c r="E16">
+        <v>0.2089195670608832</v>
+      </c>
+      <c r="F16">
+        <v>6171.316875324841</v>
+      </c>
+      <c r="G16">
+        <v>0.01620786183880586</v>
+      </c>
+      <c r="H16">
+        <v>478.7672724288541</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.7748725711003109</v>
+      </c>
+      <c r="L16">
+        <v>22889.1158522463</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>22154.4</v>
-      </c>
-      <c r="E2">
-        <v>0.602881773731628</v>
-      </c>
-      <c r="F2">
-        <v>13356.48396795998</v>
-      </c>
-      <c r="G2">
-        <v>0.01827519474462199</v>
-      </c>
-      <c r="H2">
-        <v>404.8759744502535</v>
-      </c>
-      <c r="I2">
-        <v>0.01024067412438933</v>
-      </c>
-      <c r="J2">
-        <v>226.8759908213709</v>
-      </c>
-      <c r="K2">
-        <v>0.04748247324371463</v>
-      </c>
-      <c r="L2">
-        <v>1051.945705230551</v>
-      </c>
-      <c r="M2">
-        <v>0.3211198841556461</v>
-      </c>
-      <c r="N2">
-        <v>7114.218361537846</v>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>32609.2</v>
+      </c>
+      <c r="E17">
+        <v>0.3498233502503357</v>
+      </c>
+      <c r="F17">
+        <v>11407.45959298325</v>
+      </c>
+      <c r="G17">
+        <v>0.01194191629716822</v>
+      </c>
+      <c r="H17">
+        <v>389.4163369176179</v>
+      </c>
+      <c r="I17">
+        <v>0.01688152712917871</v>
+      </c>
+      <c r="J17">
+        <v>550.4930944608144</v>
+      </c>
+      <c r="K17">
+        <v>0.005888040046878646</v>
+      </c>
+      <c r="L17">
+        <v>192.0042754966751</v>
+      </c>
+      <c r="M17">
+        <v>0.6154651662764388</v>
+      </c>
+      <c r="N17">
+        <v>20069.82670014165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>81207.20000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.08571232842587749</v>
+      </c>
+      <c r="F18">
+        <v>6960.45819694592</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.04183637246842538</v>
+      </c>
+      <c r="J18">
+        <v>3397.414666317914</v>
+      </c>
+      <c r="K18">
+        <v>0.3653750342525471</v>
+      </c>
+      <c r="L18">
+        <v>29671.08348155345</v>
+      </c>
+      <c r="M18">
+        <v>0.5070762648531499</v>
+      </c>
+      <c r="N18">
+        <v>41178.24365518273</v>
       </c>
     </row>
   </sheetData>
